--- a/data_final/dictionaries/C_Dict.xlsx
+++ b/data_final/dictionaries/C_Dict.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="556">
   <si>
     <t xml:space="preserve">Theme</t>
   </si>
@@ -64,6 +64,24 @@
     <t xml:space="preserve">x</t>
   </si>
   <si>
+    <t xml:space="preserve">HEROP_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A derived unique id corresponding to the relevant geographic unit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Healthy Regions &amp; Policies Lab, UIUC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">050US01001-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The HEROP_ID is generated as follows: Summary Level Code + "US" + GEOID + “-” + Year. In the case of County geographies, Summary Level Code is 050 and GEOID is State FP + County FP.</t>
+  </si>
+  <si>
     <t xml:space="preserve">GEOID</t>
   </si>
   <si>
@@ -71,9 +89,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tiger/Line 2018; Tiger/Line 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String</t>
   </si>
   <si>
     <t xml:space="preserve">Social</t>
@@ -1695,7 +1710,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1721,14 +1736,6 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1804,16 +1811,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1825,7 +1832,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1841,15 +1848,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1870,13 +1873,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P199"/>
+  <dimension ref="A1:P200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="2" width="4.75"/>
@@ -1975,256 +1978,253 @@
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
       <c r="M2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="1" t="n">
-        <v>36061</v>
+      <c r="N2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>1632480</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>26</v>
+        <v>36061</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="N4" s="1" t="n">
+        <v>1632480</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>1572775</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>1572775</v>
+      </c>
+      <c r="P5" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="1" t="n">
-        <v>32519</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N6" s="1" t="n">
-        <v>874237</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>44</v>
+        <v>32519</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="J7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>48</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>897040</v>
-      </c>
-      <c r="O7" s="8" t="s">
+        <v>874237</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="H8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>25</v>
+        <v>897040</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
@@ -2245,33 +2245,33 @@
         <v>13</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>14.81</v>
+        <v>56.2</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -2292,33 +2292,33 @@
         <v>13</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>0.43</v>
+        <v>14.81</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
@@ -2339,33 +2339,33 @@
         <v>13</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N11" s="1" t="n">
-        <v>12.03</v>
+        <v>0.43</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
@@ -2386,33 +2386,33 @@
         <v>13</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N12" s="1" t="n">
-        <v>0.05</v>
+        <v>12.03</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
@@ -2433,33 +2433,33 @@
         <v>13</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N13" s="1" t="n">
-        <v>16.48</v>
+        <v>0.05</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
@@ -2480,33 +2480,33 @@
         <v>13</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N14" s="1" t="n">
-        <v>25.95</v>
+        <v>16.48</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
@@ -2527,30 +2527,33 @@
         <v>13</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>0.14</v>
+        <v>25.95</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>13</v>
@@ -2571,33 +2574,30 @@
         <v>13</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>11.24</v>
+        <v>0.14</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>13</v>
@@ -2618,33 +2618,33 @@
         <v>13</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>60.43</v>
+        <v>11.24</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>13</v>
@@ -2665,33 +2665,33 @@
         <v>13</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>15.77</v>
+        <v>60.43</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>13</v>
@@ -2712,33 +2712,33 @@
         <v>13</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>79897</v>
+        <v>15.77</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>13</v>
@@ -2759,33 +2759,33 @@
         <v>13</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N20" s="1" t="n">
-        <v>122034</v>
+        <v>79897</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>13</v>
@@ -2806,33 +2806,33 @@
         <v>13</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N21" s="1" t="n">
-        <v>68706</v>
+        <v>122034</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>13</v>
@@ -2853,33 +2853,33 @@
         <v>13</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>114772</v>
+        <v>68706</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>13</v>
@@ -2900,109 +2900,115 @@
         <v>13</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>784568</v>
+        <v>114772</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N24" s="1" t="n">
-        <v>105</v>
+        <v>784568</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>91</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N25" s="1" t="n">
-        <v>103680</v>
+        <v>105</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>25</v>
+        <v>92</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>13</v>
@@ -3017,36 +3023,33 @@
         <v>13</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>100146</v>
+        <v>103680</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>13</v>
@@ -3060,37 +3063,34 @@
       <c r="F27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="H27" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>94082</v>
+        <v>100146</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>13</v>
@@ -3111,33 +3111,33 @@
         <v>13</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>90711</v>
+        <v>94082</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>13</v>
@@ -3158,109 +3158,115 @@
         <v>13</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N29" s="1" t="n">
-        <v>257362</v>
+        <v>90711</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G30" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="N30" s="1" t="n">
-        <v>1396709</v>
+        <v>257362</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="H31" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>1139347</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>25</v>
+        <v>1396709</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>13</v>
@@ -3271,42 +3277,39 @@
       <c r="F32" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G32" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>10.3</v>
+        <v>1139347</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -3315,37 +3318,43 @@
       <c r="F33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="H33" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K33" s="7" t="s">
         <v>111</v>
       </c>
+      <c r="J33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="L33" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>13.01</v>
+        <v>10.3</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>13</v>
@@ -3353,250 +3362,238 @@
       <c r="F34" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G34" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>115</v>
+      <c r="K34" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N34" s="1" t="n">
-        <v>2.33</v>
+        <v>13.01</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N35" s="1" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="P35" s="8" t="s">
-        <v>32</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="L36" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N36" s="1" t="n">
-        <v>24.71</v>
+        <v>2.39</v>
       </c>
       <c r="P36" s="8" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="K37" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>24.71</v>
+      </c>
+      <c r="P37" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N37" s="1" t="n">
-        <v>35511</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H38" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="L38" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N38" s="1" t="n">
-        <v>33673</v>
+        <v>35511</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H39" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L39" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="M39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N39" s="1" t="n">
+        <v>33673</v>
+      </c>
+      <c r="O39" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N39" s="1" t="n">
-        <v>35342</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="P39" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="H40" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N40" s="1" t="n">
+        <v>35342</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="P40" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N40" s="1" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>13</v>
@@ -3617,36 +3614,45 @@
         <v>13</v>
       </c>
       <c r="H41" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="J41" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="J41" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="K41" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N41" s="1" t="n">
-        <v>16.6</v>
+        <v>5.7</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>13</v>
@@ -3654,28 +3660,40 @@
       <c r="F42" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G42" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="L42" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K42" s="1" t="s">
+      <c r="M42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N42" s="1" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P42" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N42" s="1" t="n">
-        <v>48748</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>13</v>
@@ -3684,370 +3702,355 @@
         <v>13</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N43" s="1" t="n">
-        <v>72832</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>138</v>
+        <v>48748</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N44" s="1" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O44" s="8" t="s">
-        <v>151</v>
+        <v>72832</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H45" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="L45" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N45" s="1" t="n">
-        <v>6.72</v>
+        <v>2.94</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H46" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L46" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="M46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N46" s="1" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="O46" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="J46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N46" s="1" t="n">
-        <v>0.5971</v>
+      <c r="P46" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N47" s="1" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="O47" s="8" t="s">
-        <v>49</v>
+        <v>0.5971</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N48" s="1" t="n">
-        <v>5.11</v>
+        <v>9.74</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N49" s="1" t="n">
-        <v>12.81</v>
+        <v>5.11</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N50" s="1" t="n">
-        <v>7.17</v>
+        <v>12.81</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="N51" s="1" t="n">
-        <v>218350</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>168</v>
+        <v>7.17</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M52" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="N52" s="1" t="n">
-        <v>24.34</v>
+        <v>218350</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I53" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L53" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="M53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N53" s="1" t="n">
+        <v>24.34</v>
+      </c>
+      <c r="O53" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N53" s="1" t="n">
-        <v>11.53</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H54" s="7" t="s">
@@ -4057,306 +4060,315 @@
         <v>177</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N54" s="1" t="n">
-        <v>13.28</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>44</v>
+        <v>11.53</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G55" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H55" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N55" s="1" t="n">
-        <v>0.06</v>
+        <v>13.28</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N56" s="1" t="n">
-        <v>29.16</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N57" s="1" t="n">
-        <v>75.87</v>
+        <v>29.16</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N58" s="1" t="n">
-        <v>38586.48</v>
+        <v>75.87</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N59" s="1" t="n">
-        <v>22.66</v>
-      </c>
-      <c r="O59" s="8" t="s">
-        <v>192</v>
+        <v>38586.48</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H60" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J60" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="K60" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="N60" s="1" t="n">
-        <v>360</v>
+        <v>22.66</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H61" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K61" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="L61" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="J61" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="M61" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N61" s="1" t="n">
-        <v>15.89</v>
+        <v>360</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H62" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N62" s="1" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="O62" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O62" s="8" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>30</v>
+        <v>195</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N63" s="1" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="P63" s="8" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>13</v>
@@ -4368,1427 +4380,1427 @@
         <v>205</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N64" s="1" t="n">
-        <v>0.22</v>
+        <v>0.72</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="P64" s="8" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H65" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L65" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="M65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N65" s="1" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="O65" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="J65" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N65" s="1" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O65" s="8" t="s">
-        <v>202</v>
-      </c>
       <c r="P65" s="8" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H66" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N66" s="1" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="O66" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="P66" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N66" s="1" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="O66" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="P66" s="8" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N67" s="1" t="n">
-        <v>0.26</v>
+        <v>0.63</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="P67" s="8" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N68" s="1" t="n">
-        <v>0.48</v>
+        <v>0.26</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="P68" s="8" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N69" s="1" t="n">
-        <v>0.35</v>
+        <v>0.48</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="P69" s="8" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N70" s="1" t="n">
-        <v>0.48</v>
+        <v>0.35</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="P70" s="8" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N71" s="1" t="n">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="P71" s="8" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>222</v>
+        <v>34</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N72" s="1" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>225</v>
+        <v>207</v>
+      </c>
+      <c r="P72" s="8" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H73" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="J73" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="K73" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="K73" s="1" t="s">
+      <c r="L73" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="L73" s="1" t="s">
+      <c r="M73" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N73" s="1" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O73" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N73" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H74" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J74" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="K74" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="L74" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K74" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="M74" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N74" s="1" t="n">
         <v>288</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H75" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N75" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="P75" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N75" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="O75" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="P75" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I76" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J76" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="K76" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L76" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K76" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="M76" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N76" s="1" t="n">
         <v>287</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H77" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K77" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="I77" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J77" s="1" t="s">
+      <c r="L77" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K77" s="1" t="s">
+      <c r="M77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N77" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="O77" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L77" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N77" s="1" t="n">
+      <c r="P77" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N78" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="O77" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="P77" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="J78" s="1" t="s">
+      <c r="O78" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L79" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K78" s="1" t="s">
+      <c r="M79" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N79" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="O79" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L78" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N78" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="P78" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="J79" s="1" t="s">
+      <c r="P79" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L80" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K79" s="1" t="s">
+      <c r="M80" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N80" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="O80" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L79" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N79" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="O79" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="P79" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N80" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="O80" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="P80" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="J81" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L81" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="M81" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N81" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="O81" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L81" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N81" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="P81" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="J82" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L82" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K82" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="M82" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N82" s="1" t="n">
         <v>287</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="J83" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L83" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K83" s="1" t="s">
+      <c r="M83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N83" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="O83" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L83" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M83" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N83" s="1" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="O83" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="P83" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J84" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L84" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K84" s="1" t="s">
+      <c r="M84" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N84" s="1" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O84" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L84" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N84" s="1" t="n">
-        <v>1.12569444444444</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="P84" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="J85" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L85" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K85" s="1" t="s">
+      <c r="M85" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N85" s="1" t="n">
+        <v>1.12569444444444</v>
+      </c>
+      <c r="O85" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L85" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N85" s="1" t="n">
-        <v>1.87725694444444</v>
-      </c>
-      <c r="O85" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="P85" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J86" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L86" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K86" s="1" t="s">
+      <c r="M86" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N86" s="1" t="n">
+        <v>1.87725694444444</v>
+      </c>
+      <c r="O86" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L86" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N86" s="1" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O86" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="P86" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="J87" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L87" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K87" s="1" t="s">
+      <c r="M87" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N87" s="1" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O87" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L87" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N87" s="1" t="n">
-        <v>6.32958333333333</v>
-      </c>
-      <c r="O87" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="P87" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J88" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L88" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K88" s="1" t="s">
+      <c r="M88" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N88" s="1" t="n">
+        <v>6.32958333333333</v>
+      </c>
+      <c r="O88" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L88" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N88" s="1" t="n">
-        <v>13.7240277777778</v>
-      </c>
-      <c r="O88" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="P88" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="J89" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L89" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K89" s="1" t="s">
+      <c r="M89" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N89" s="1" t="n">
+        <v>13.7240277777778</v>
+      </c>
+      <c r="O89" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L89" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N89" s="1" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="O89" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="P89" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J90" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L90" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K90" s="1" t="s">
+      <c r="M90" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N90" s="1" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="O90" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L90" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N90" s="1" t="n">
-        <v>3.80180555555556</v>
-      </c>
-      <c r="O90" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="P90" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="J91" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L91" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K91" s="1" t="s">
+      <c r="M91" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N91" s="1" t="n">
+        <v>3.80180555555556</v>
+      </c>
+      <c r="O91" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L91" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N91" s="1" t="n">
-        <v>7.40684027777778</v>
-      </c>
-      <c r="O91" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="P91" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="J92" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L92" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K92" s="1" t="s">
+      <c r="M92" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N92" s="1" t="n">
+        <v>7.40684027777778</v>
+      </c>
+      <c r="O92" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L92" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N92" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O92" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="P92" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J93" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L93" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K93" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="M93" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N93" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="J94" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L94" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K94" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="M94" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N94" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="J95" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L95" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K95" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="M95" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N95" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="J96" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L96" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K96" s="1" t="s">
+      <c r="M96" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N96" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O96" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L96" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N96" s="1" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="O96" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="P96" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="J97" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L97" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K97" s="1" t="s">
+      <c r="M97" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N97" s="1" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="O97" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L97" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N97" s="1" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="O97" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="P97" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="J98" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L98" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K98" s="1" t="s">
+      <c r="M98" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N98" s="1" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="O98" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L98" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N98" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O98" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="P98" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J99" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L99" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K99" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="M99" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N99" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="J100" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L100" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K100" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="M100" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N100" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>291</v>
+        <v>240</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>293</v>
+        <v>235</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="N101" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="O101" s="8" t="s">
-        <v>294</v>
+        <v>1</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>295</v>
+        <v>237</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H102" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J102" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="K102" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="J102" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="L102" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N102" s="1" t="n">
-        <v>1.39</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H103" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="L103" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="I103" s="1" t="s">
+      <c r="M103" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N103" s="1" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="O103" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="J103" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N103" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O103" s="8" t="s">
-        <v>294</v>
-      </c>
       <c r="P103" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H104" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O104" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="P104" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N104" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="O104" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="P104" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>13</v>
@@ -5800,415 +5812,415 @@
         <v>306</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N105" s="1" t="n">
-        <v>2.89</v>
+        <v>288</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H106" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J106" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I106" s="1" t="s">
+      <c r="K106" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L106" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J106" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="M106" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N106" s="1" t="n">
-        <v>1</v>
+        <v>2.89</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H107" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N107" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O107" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I107" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N107" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="O107" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="P107" s="1" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H108" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="I108" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I108" s="1" t="s">
+      <c r="J108" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="J108" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="K108" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N108" s="1" t="n">
-        <v>0.37</v>
+        <v>288</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H109" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L109" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="I109" s="1" t="s">
+      <c r="M109" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N109" s="1" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O109" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="J109" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="L109" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="M109" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N109" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O109" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="P109" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H110" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="P110" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="M110" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N110" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="O110" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="P110" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H111" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J111" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I111" s="1" t="s">
+      <c r="K111" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J111" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="L111" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N111" s="1" t="n">
-        <v>1.49</v>
+        <v>288</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H112" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="L112" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I112" s="1" t="s">
+      <c r="M112" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N112" s="1" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="O112" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="J112" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="M112" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N112" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O112" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="P112" s="1" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H113" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N113" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="P113" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="M113" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N113" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="O113" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="P113" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N114" s="1" t="n">
-        <v>1.49</v>
+        <v>288</v>
       </c>
       <c r="O114" s="8" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N115" s="1" t="n">
-        <v>1</v>
+        <v>1.49</v>
       </c>
       <c r="O115" s="8" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H116" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="L116" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I116" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="L116" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="M116" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="N116" s="1" t="n">
-        <v>288</v>
+        <v>1</v>
       </c>
       <c r="O116" s="8" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="P116" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>13</v>
@@ -6220,777 +6232,780 @@
         <v>343</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N117" s="1" t="n">
-        <v>2.7</v>
+        <v>288</v>
       </c>
       <c r="O117" s="8" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H118" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J118" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="I118" s="1" t="s">
+      <c r="K118" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="J118" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="L118" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N118" s="1" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="O118" s="8" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L119" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F119" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H119" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="J119" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="K119" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="L119" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="M119" s="7" t="s">
-        <v>24</v>
+      <c r="M119" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="N119" s="1" t="n">
-        <v>1908</v>
-      </c>
-      <c r="O119" s="1" t="s">
-        <v>352</v>
+        <v>1</v>
+      </c>
+      <c r="O119" s="8" t="s">
+        <v>299</v>
       </c>
       <c r="P119" s="1" t="s">
-        <v>353</v>
+        <v>300</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>38</v>
+        <v>351</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H120" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J120" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="I120" s="1" t="s">
+      <c r="K120" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="J120" s="7" t="s">
+      <c r="L120" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="K120" s="7" t="s">
+      <c r="M120" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N120" s="1" t="n">
+        <v>1908</v>
+      </c>
+      <c r="O120" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="L120" s="7" t="s">
+      <c r="P120" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="M120" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N120" s="1" t="n">
-        <v>2546</v>
-      </c>
-      <c r="O120" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H121" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="I121" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="I121" s="1" t="s">
+      <c r="J121" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="J121" s="7" t="s">
-        <v>356</v>
-      </c>
       <c r="K121" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="L121" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="M121" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N121" s="1" t="n">
-        <v>8874</v>
+        <v>2546</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H122" s="1" t="s">
+      <c r="H122" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="J122" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K122" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="I122" s="1" t="s">
+      <c r="L122" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="J122" s="7" t="s">
+      <c r="M122" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N122" s="1" t="n">
+        <v>8874</v>
+      </c>
+      <c r="O122" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="K122" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="L122" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="M122" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="N122" s="1" t="n">
-        <v>155.96</v>
-      </c>
-      <c r="O122" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J123" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K123" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L123" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="M123" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N123" s="1" t="n">
+        <v>155.96</v>
+      </c>
+      <c r="O123" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="K123" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="L123" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="M123" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="N123" s="1" t="n">
-        <v>543.59</v>
-      </c>
-      <c r="O123" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>346</v>
+        <v>43</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H124" s="7" t="s">
-        <v>368</v>
+      <c r="H124" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="I124" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J124" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="J124" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="K124" s="7" t="s">
         <v>370</v>
       </c>
       <c r="L124" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="M124" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N124" s="1" t="n">
-        <v>56.3</v>
+        <v>543.59</v>
+      </c>
+      <c r="O124" s="1" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="K125" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L125" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="M125" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N125" s="1" t="n">
-        <v>10.5</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="I126" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="J126" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="J126" s="7" t="s">
-        <v>370</v>
-      </c>
       <c r="K126" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L126" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="M126" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N126" s="1" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H127" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="J127" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K127" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L127" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="I127" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="J127" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="K127" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L127" s="7" t="s">
-        <v>371</v>
-      </c>
       <c r="M127" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N127" s="1" t="n">
-        <v>16.3</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L128" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="M128" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N128" s="1" t="n">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L129" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="M129" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N129" s="1" t="n">
-        <v>17.1</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="K130" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L130" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="M130" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N130" s="1" t="n">
-        <v>19.8</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="K131" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L131" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="M131" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N131" s="1" t="n">
-        <v>24.5</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>38</v>
+        <v>351</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H132" s="1" t="s">
-        <v>386</v>
+      <c r="H132" s="7" t="s">
+        <v>389</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J132" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="K132" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="L132" s="1" t="s">
         <v>390</v>
       </c>
+      <c r="J132" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K132" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L132" s="7" t="s">
+        <v>376</v>
+      </c>
       <c r="M132" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N132" s="1" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="P132" s="1" t="s">
-        <v>391</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H133" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I133" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="I133" s="1" t="s">
+      <c r="J133" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="J133" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="K133" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M133" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N133" s="1" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="P133" s="1" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H134" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="K134" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="I134" s="1" t="s">
+      <c r="L134" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="J134" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="K134" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="L134" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="M134" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N134" s="1" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H135" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="M135" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N135" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P135" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="I135" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="K135" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="L135" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="M135" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N135" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="P135" s="1" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="I136" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
+      </c>
+      <c r="I136" s="8" t="s">
+        <v>402</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N136" s="1" t="n">
-        <v>1585873</v>
+        <v>17</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>403</v>
       </c>
       <c r="P136" s="1" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>405</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N137" s="1" t="n">
         <v>1585873</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N138" s="1" t="n">
-        <v>0</v>
+        <v>1585873</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N139" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P139" s="1" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>412</v>
+        <v>57</v>
       </c>
       <c r="N140" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="P140" s="1" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H141" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I141" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="I141" s="1" t="s">
+      <c r="J141" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="J141" s="1" t="s">
+      <c r="K141" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="K141" s="1" t="s">
+      <c r="L141" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="L141" s="1" t="s">
-        <v>411</v>
-      </c>
       <c r="M141" s="1" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="N141" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P141" s="1" t="s">
-        <v>417</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>13</v>
@@ -7008,22 +7023,21 @@
         <v>421</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="N142" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O142" s="1" t="s">
+      <c r="P142" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="P142" s="11"/>
     </row>
     <row r="143" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>13</v>
@@ -7041,1319 +7055,1317 @@
         <v>426</v>
       </c>
       <c r="L143" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="N143" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="M143" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N143" s="1" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="O143" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="P143" s="1" t="s">
-        <v>429</v>
-      </c>
+      <c r="P143" s="10"/>
     </row>
     <row r="144" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H144" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="J144" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="I144" s="1" t="s">
+      <c r="K144" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="J144" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="K144" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="L144" s="1" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N144" s="1" t="n">
-        <v>0.01</v>
+        <v>0.42</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H145" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="L145" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="I145" s="1" t="s">
+      <c r="M145" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N145" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O145" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="J145" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="K145" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="L145" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="M145" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N145" s="1" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="O145" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="P145" s="1" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H146" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N146" s="1" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O146" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="P146" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="J146" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="K146" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="L146" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="M146" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N146" s="1" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="O146" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="P146" s="1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N147" s="1" t="n">
-        <v>0.55</v>
+        <v>0.97</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>438</v>
+        <v>23</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N148" s="1" t="n">
-        <v>373.6</v>
+        <v>0.55</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H149" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="J149" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="I149" s="1" t="s">
+      <c r="K149" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="J149" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="K149" s="1" t="s">
-        <v>442</v>
-      </c>
       <c r="L149" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N149" s="1" t="n">
-        <v>21.24</v>
+        <v>373.6</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P149" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H150" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="L150" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="I150" s="1" t="s">
+      <c r="M150" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N150" s="1" t="n">
+        <v>21.24</v>
+      </c>
+      <c r="O150" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="J150" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="K150" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="L150" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="M150" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N150" s="1" t="n">
-        <v>752.06</v>
-      </c>
-      <c r="O150" s="1" t="s">
-        <v>444</v>
-      </c>
       <c r="P150" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H151" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="M151" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N151" s="1" t="n">
+        <v>752.06</v>
+      </c>
+      <c r="O151" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="P151" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="J151" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="K151" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="L151" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="M151" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N151" s="1" t="n">
-        <v>18.42</v>
-      </c>
-      <c r="O151" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="P151" s="1" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N152" s="1" t="n">
-        <v>895.68</v>
+        <v>18.42</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P152" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N153" s="1" t="n">
-        <v>438.21</v>
+        <v>895.68</v>
       </c>
       <c r="O153" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M154" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N154" s="1" t="n">
-        <v>549.45</v>
+        <v>438.21</v>
       </c>
       <c r="O154" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P154" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M155" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N155" s="1" t="n">
-        <v>83.14</v>
+        <v>549.45</v>
       </c>
       <c r="O155" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P155" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N156" s="1" t="n">
-        <v>140.33</v>
+        <v>83.14</v>
       </c>
       <c r="O156" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P156" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M157" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N157" s="1" t="n">
-        <v>11.25</v>
+        <v>140.33</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P157" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N158" s="1" t="n">
-        <v>278.96</v>
+        <v>11.25</v>
       </c>
       <c r="O158" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P158" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M159" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N159" s="1" t="n">
-        <v>4.11</v>
+        <v>278.96</v>
       </c>
       <c r="O159" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P159" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N160" s="1" t="n">
-        <v>320.86</v>
+        <v>4.11</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P160" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M161" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N161" s="1" t="n">
-        <v>174.65</v>
+        <v>320.86</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P161" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M162" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N162" s="1" t="n">
-        <v>290.89</v>
+        <v>174.65</v>
       </c>
       <c r="O162" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P162" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M163" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N163" s="1" t="n">
-        <v>30.33</v>
+        <v>290.89</v>
       </c>
       <c r="O163" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P163" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M164" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="N164" s="1" t="n">
-        <v>21605</v>
+        <v>30.33</v>
       </c>
       <c r="O164" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P164" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M165" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N165" s="1" t="n">
-        <v>636</v>
+        <v>21605</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P165" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M166" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N166" s="1" t="n">
-        <v>20969</v>
+        <v>636</v>
       </c>
       <c r="O166" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P166" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M167" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N167" s="1" t="n">
-        <v>166</v>
+        <v>20969</v>
       </c>
       <c r="O167" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P167" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M168" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N168" s="1" t="n">
-        <v>11861</v>
+        <v>166</v>
       </c>
       <c r="O168" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P168" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N169" s="1" t="n">
-        <v>7359</v>
+        <v>11861</v>
       </c>
       <c r="O169" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P169" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M170" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N170" s="1" t="n">
-        <v>102</v>
+        <v>7359</v>
       </c>
       <c r="O170" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P170" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N171" s="1" t="n">
-        <v>1546</v>
+        <v>102</v>
       </c>
       <c r="O171" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P171" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M172" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N172" s="1" t="n">
-        <v>8115</v>
+        <v>1546</v>
       </c>
       <c r="O172" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P172" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N173" s="1" t="n">
-        <v>337</v>
+        <v>8115</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P173" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M174" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N174" s="1" t="n">
-        <v>7778</v>
+        <v>337</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N175" s="1" t="n">
-        <v>37</v>
+        <v>7778</v>
       </c>
       <c r="O175" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P175" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N176" s="1" t="n">
-        <v>4249</v>
+        <v>37</v>
       </c>
       <c r="O176" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N177" s="1" t="n">
-        <v>2933</v>
+        <v>4249</v>
       </c>
       <c r="O177" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P177" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M178" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N178" s="1" t="n">
-        <v>54</v>
+        <v>2933</v>
       </c>
       <c r="O178" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P178" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M179" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N179" s="1" t="n">
-        <v>564</v>
+        <v>54</v>
       </c>
       <c r="O179" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P179" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>510</v>
+        <v>446</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>511</v>
+        <v>447</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>512</v>
+        <v>448</v>
       </c>
       <c r="M180" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N180" s="1" t="n">
-        <v>230.32</v>
+        <v>564</v>
       </c>
       <c r="O180" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P180" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>13</v>
@@ -8365,655 +8377,690 @@
         <v>514</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="M181" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N181" s="1" t="n">
-        <v>29.02</v>
+        <v>230.32</v>
       </c>
       <c r="O181" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P181" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H182" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="J182" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="I182" s="1" t="s">
+      <c r="K182" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="J182" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="K182" s="1" t="s">
-        <v>511</v>
-      </c>
       <c r="L182" s="1" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N182" s="1" t="n">
-        <v>439.39</v>
+        <v>29.02</v>
       </c>
       <c r="O182" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P182" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H183" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="K183" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="I183" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="J183" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="K183" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="L183" s="1" t="s">
-        <v>512</v>
-      </c>
       <c r="M183" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N183" s="1" t="n">
-        <v>47.69</v>
+        <v>439.39</v>
       </c>
       <c r="O183" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P183" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="M184" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N184" s="1" t="n">
-        <v>491.34</v>
+        <v>47.69</v>
       </c>
       <c r="O184" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P184" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="M185" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N185" s="1" t="n">
-        <v>186.29</v>
+        <v>491.34</v>
       </c>
       <c r="O185" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P185" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="M186" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N186" s="1" t="n">
-        <v>108.03</v>
+        <v>186.29</v>
       </c>
       <c r="O186" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P186" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="M187" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N187" s="1" t="n">
-        <v>151.84</v>
+        <v>108.03</v>
       </c>
       <c r="O187" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="M188" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N188" s="1" t="n">
-        <v>1260.84</v>
+        <v>151.84</v>
       </c>
       <c r="O188" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P188" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="M189" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N189" s="1" t="n">
-        <v>107.3</v>
+        <v>1260.84</v>
       </c>
       <c r="O189" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P189" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="M190" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="N190" s="1" t="n">
-        <v>13201</v>
+        <v>107.3</v>
       </c>
       <c r="O190" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P190" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="M191" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N191" s="1" t="n">
-        <v>861</v>
+        <v>13201</v>
       </c>
       <c r="O191" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P191" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="M192" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N192" s="1" t="n">
-        <v>12149</v>
+        <v>861</v>
       </c>
       <c r="O192" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P192" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="M193" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N193" s="1" t="n">
-        <v>431.09</v>
+        <v>12149</v>
       </c>
       <c r="O193" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P193" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="M194" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N194" s="1" t="n">
-        <v>6426</v>
+        <v>431.09</v>
       </c>
       <c r="O194" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P194" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="M195" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N195" s="1" t="n">
-        <v>3102</v>
+        <v>6426</v>
       </c>
       <c r="O195" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P195" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="M196" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N196" s="1" t="n">
-        <v>20</v>
+        <v>3102</v>
       </c>
       <c r="O196" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P196" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="M197" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N197" s="1" t="n">
-        <v>2788</v>
+        <v>20</v>
       </c>
       <c r="O197" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P197" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="M198" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N198" s="1" t="n">
-        <v>72266</v>
+        <v>2788</v>
       </c>
       <c r="O198" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P198" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="M199" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N199" s="1" t="n">
+        <v>72266</v>
+      </c>
+      <c r="O199" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="P199" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="J200" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="K200" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="L200" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="M200" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N200" s="1" t="n">
         <v>6150</v>
       </c>
-      <c r="O199" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="P199" s="1" t="s">
-        <v>445</v>
+      <c r="O200" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="P200" s="1" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/data_final/dictionaries/C_Dict.xlsx
+++ b/data_final/dictionaries/C_Dict.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="589">
   <si>
     <t xml:space="preserve">Theme</t>
   </si>
@@ -115,31 +115,34 @@
     <t xml:space="preserve">DS01</t>
   </si>
   <si>
+    <t xml:space="preserve">Float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For more information about how these data have been used in homelessness and housing stability research, please refer to https://www.census.gov/newsroom/press-releases/2020/special-operations-homelessness.html or https://www.americanprogress.org/issues/poverty/reports/2020/10/05/491122/count-people-where-they-are/.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotPopHh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total number of people in households</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACS 2018, 5-Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Community Survey 2014-2018 5 Year Estimates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS05</t>
+  </si>
+  <si>
     <t xml:space="preserve">Integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For more information about how these data have been used in homelessness and housing stability research, please refer to https://www.census.gov/newsroom/press-releases/2020/special-operations-homelessness.html or https://www.americanprogress.org/issues/poverty/reports/2020/10/05/491122/count-people-where-they-are/.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotPopHh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total number of people in households</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACS 2018, 5-Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American Community Survey 2014-2018 5 Year Estimates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS05</t>
   </si>
   <si>
     <t xml:space="preserve">For more information about how these data have been used in homelessness and housing stability research, please refer to https://www.census.gov/newsroom/press-releases/2020/special-operations-homelessness.html or https://www.americanprogress.org/issues/poverty/reports/2020/10/05/491122/count-people-where-they-are/.
@@ -216,9 +219,6 @@
     <t xml:space="preserve">https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
   </si>
   <si>
-    <t xml:space="preserve">Float</t>
-  </si>
-  <si>
     <t xml:space="preserve">BlackP</t>
   </si>
   <si>
@@ -1281,6 +1281,12 @@
   </si>
   <si>
     <t xml:space="preserve">Narcotic Overdose Mortality Rate 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OdMortRtAv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average narcotic overdose mortality rates from 2015-2019</t>
   </si>
   <si>
     <t xml:space="preserve">RcaUrbanP</t>
@@ -1967,12 +1973,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q200"/>
+  <dimension ref="A1:Q201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="P208" activeCellId="0" sqref="P208"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="O204" activeCellId="0" sqref="O204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2207,13 +2213,13 @@
         <v>39</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O5" s="1" t="n">
         <v>1572775</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2227,25 +2233,25 @@
         <v>14</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O6" s="1" t="n">
         <v>32519</v>
@@ -2253,7 +2259,7 @@
     </row>
     <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
@@ -2274,22 +2280,22 @@
         <v>14</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>31</v>
@@ -2298,24 +2304,24 @@
         <v>874237</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>37</v>
@@ -2324,16 +2330,16 @@
         <v>38</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O8" s="1" t="n">
         <v>897040</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2359,13 +2365,13 @@
         <v>14</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>28</v>
@@ -2377,7 +2383,7 @@
         <v>30</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O9" s="1" t="n">
         <v>56.2</v>
@@ -2415,7 +2421,7 @@
         <v>66</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>28</v>
@@ -2427,7 +2433,7 @@
         <v>30</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O10" s="1" t="n">
         <v>14.81</v>
@@ -2465,7 +2471,7 @@
         <v>68</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>28</v>
@@ -2477,7 +2483,7 @@
         <v>30</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O11" s="1" t="n">
         <v>0.43</v>
@@ -2515,7 +2521,7 @@
         <v>70</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>28</v>
@@ -2527,7 +2533,7 @@
         <v>30</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O12" s="1" t="n">
         <v>12.03</v>
@@ -2565,7 +2571,7 @@
         <v>72</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>28</v>
@@ -2577,7 +2583,7 @@
         <v>30</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O13" s="1" t="n">
         <v>0.05</v>
@@ -2615,7 +2621,7 @@
         <v>74</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>28</v>
@@ -2627,7 +2633,7 @@
         <v>30</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O14" s="1" t="n">
         <v>16.48</v>
@@ -2665,7 +2671,7 @@
         <v>76</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>28</v>
@@ -2677,7 +2683,7 @@
         <v>30</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O15" s="1" t="n">
         <v>25.95</v>
@@ -2724,7 +2730,7 @@
         <v>29</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O16" s="1" t="n">
         <v>0.14</v>
@@ -2774,7 +2780,7 @@
         <v>30</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O17" s="1" t="n">
         <v>11.24</v>
@@ -2824,7 +2830,7 @@
         <v>30</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O18" s="1" t="n">
         <v>60.43</v>
@@ -2874,7 +2880,7 @@
         <v>30</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O19" s="1" t="n">
         <v>15.77</v>
@@ -3523,7 +3529,7 @@
         <v>30</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O33" s="1" t="n">
         <v>10.3</v>
@@ -3573,7 +3579,7 @@
         <v>30</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O34" s="1" t="n">
         <v>13.01</v>
@@ -3599,7 +3605,7 @@
         <v>126</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>127</v>
@@ -3608,10 +3614,10 @@
         <v>128</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O35" s="1" t="n">
         <v>2.33</v>
@@ -3643,13 +3649,13 @@
         <v>39</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O36" s="1" t="n">
         <v>2.39</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3678,7 +3684,7 @@
         <v>39</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O37" s="1" t="n">
         <v>24.71</v>
@@ -3713,7 +3719,7 @@
         <v>140</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O38" s="1" t="n">
         <v>35511</v>
@@ -3751,7 +3757,7 @@
         <v>140</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O39" s="1" t="n">
         <v>33673</v>
@@ -3789,7 +3795,7 @@
         <v>140</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O40" s="1" t="n">
         <v>35342</v>
@@ -3803,7 +3809,7 @@
     </row>
     <row r="41" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>14</v>
@@ -3842,13 +3848,13 @@
         <v>152</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O41" s="1" t="n">
         <v>5.7</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>153</v>
@@ -3856,7 +3862,7 @@
     </row>
     <row r="42" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>14</v>
@@ -3895,13 +3901,13 @@
         <v>152</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O42" s="1" t="n">
         <v>16.6</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>153</v>
@@ -3909,7 +3915,7 @@
     </row>
     <row r="43" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>14</v>
@@ -3927,13 +3933,13 @@
         <v>149</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>158</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O43" s="1" t="n">
         <v>48748</v>
@@ -3941,7 +3947,7 @@
     </row>
     <row r="44" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>14</v>
@@ -3968,7 +3974,7 @@
         <v>152</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O44" s="1" t="n">
         <v>72832</v>
@@ -3979,7 +3985,7 @@
     </row>
     <row r="45" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>14</v>
@@ -4003,7 +4009,7 @@
         <v>166</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O45" s="1" t="n">
         <v>2.94</v>
@@ -4017,7 +4023,7 @@
     </row>
     <row r="46" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>14</v>
@@ -4041,7 +4047,7 @@
         <v>166</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O46" s="1" t="n">
         <v>6.72</v>
@@ -4055,7 +4061,7 @@
     </row>
     <row r="47" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>14</v>
@@ -4079,7 +4085,7 @@
         <v>38</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O47" s="1" t="n">
         <v>0.5971</v>
@@ -4087,7 +4093,7 @@
     </row>
     <row r="48" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>14</v>
@@ -4099,7 +4105,7 @@
         <v>174</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>37</v>
@@ -4108,21 +4114,21 @@
         <v>38</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O48" s="1" t="n">
         <v>9.74</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>14</v>
@@ -4134,7 +4140,7 @@
         <v>176</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>37</v>
@@ -4143,21 +4149,21 @@
         <v>38</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O49" s="1" t="n">
         <v>5.11</v>
       </c>
       <c r="P49" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>14</v>
@@ -4169,7 +4175,7 @@
         <v>178</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>37</v>
@@ -4178,21 +4184,21 @@
         <v>38</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O50" s="1" t="n">
         <v>12.81</v>
       </c>
       <c r="P50" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>14</v>
@@ -4204,7 +4210,7 @@
         <v>180</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>37</v>
@@ -4213,21 +4219,21 @@
         <v>38</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O51" s="1" t="n">
         <v>7.17</v>
       </c>
       <c r="P51" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>14</v>
@@ -4251,7 +4257,7 @@
         <v>184</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O52" s="1" t="n">
         <v>218350</v>
@@ -4262,7 +4268,7 @@
     </row>
     <row r="53" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>14</v>
@@ -4286,7 +4292,7 @@
         <v>184</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O53" s="1" t="n">
         <v>24.34</v>
@@ -4297,7 +4303,7 @@
     </row>
     <row r="54" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>14</v>
@@ -4321,7 +4327,7 @@
         <v>193</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O54" s="1" t="n">
         <v>11.53</v>
@@ -4329,7 +4335,7 @@
     </row>
     <row r="55" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>14</v>
@@ -4356,7 +4362,7 @@
         <v>195</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>150</v>
@@ -4365,21 +4371,21 @@
         <v>196</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O55" s="1" t="n">
         <v>13.28</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>14</v>
@@ -4391,7 +4397,7 @@
         <v>198</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>37</v>
@@ -4400,10 +4406,10 @@
         <v>103</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O56" s="1" t="n">
         <v>0.06</v>
@@ -4411,7 +4417,7 @@
     </row>
     <row r="57" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>14</v>
@@ -4423,7 +4429,7 @@
         <v>200</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>37</v>
@@ -4432,10 +4438,10 @@
         <v>103</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O57" s="1" t="n">
         <v>29.16</v>
@@ -4443,7 +4449,7 @@
     </row>
     <row r="58" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>14</v>
@@ -4455,7 +4461,7 @@
         <v>202</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>37</v>
@@ -4464,10 +4470,10 @@
         <v>103</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O58" s="1" t="n">
         <v>75.87</v>
@@ -4475,7 +4481,7 @@
     </row>
     <row r="59" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>14</v>
@@ -4487,7 +4493,7 @@
         <v>204</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>37</v>
@@ -4496,10 +4502,10 @@
         <v>103</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O59" s="1" t="n">
         <v>38586.48</v>
@@ -4507,7 +4513,7 @@
     </row>
     <row r="60" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -4536,7 +4542,7 @@
         <v>210</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O60" s="1" t="n">
         <v>22.66</v>
@@ -4547,7 +4553,7 @@
     </row>
     <row r="61" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>14</v>
@@ -4571,7 +4577,7 @@
         <v>210</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O61" s="1" t="n">
         <v>360</v>
@@ -4582,7 +4588,7 @@
     </row>
     <row r="62" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>14</v>
@@ -4606,7 +4612,7 @@
         <v>210</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O62" s="1" t="n">
         <v>15.89</v>
@@ -4617,7 +4623,7 @@
     </row>
     <row r="63" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>14</v>
@@ -4641,7 +4647,7 @@
         <v>210</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O63" s="1" t="n">
         <v>0</v>
@@ -4676,7 +4682,7 @@
         <v>221</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O64" s="1" t="n">
         <v>0.72</v>
@@ -4714,7 +4720,7 @@
         <v>221</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O65" s="1" t="n">
         <v>0.22</v>
@@ -4752,7 +4758,7 @@
         <v>221</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O66" s="1" t="n">
         <v>0.36</v>
@@ -4790,7 +4796,7 @@
         <v>221</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O67" s="1" t="n">
         <v>0.63</v>
@@ -4828,7 +4834,7 @@
         <v>221</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O68" s="1" t="n">
         <v>0.26</v>
@@ -4866,7 +4872,7 @@
         <v>221</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O69" s="1" t="n">
         <v>0.48</v>
@@ -4904,7 +4910,7 @@
         <v>221</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O70" s="1" t="n">
         <v>0.35</v>
@@ -4942,7 +4948,7 @@
         <v>221</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O71" s="1" t="n">
         <v>0.48</v>
@@ -4980,7 +4986,7 @@
         <v>221</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O72" s="1" t="n">
         <v>0.24</v>
@@ -4994,7 +5000,7 @@
     </row>
     <row r="73" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>14</v>
@@ -5018,7 +5024,7 @@
         <v>245</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O73" s="1" t="n">
         <v>0.02</v>
@@ -5029,7 +5035,7 @@
     </row>
     <row r="74" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>14</v>
@@ -5053,7 +5059,7 @@
         <v>252</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O74" s="1" t="n">
         <v>288</v>
@@ -5067,7 +5073,7 @@
     </row>
     <row r="75" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>14</v>
@@ -5091,7 +5097,7 @@
         <v>252</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O75" s="1" t="n">
         <v>288</v>
@@ -5105,7 +5111,7 @@
     </row>
     <row r="76" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>14</v>
@@ -5129,7 +5135,7 @@
         <v>252</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O76" s="1" t="n">
         <v>287</v>
@@ -5143,7 +5149,7 @@
     </row>
     <row r="77" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>14</v>
@@ -5167,7 +5173,7 @@
         <v>252</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O77" s="1" t="n">
         <v>287</v>
@@ -5181,7 +5187,7 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>14</v>
@@ -5205,7 +5211,7 @@
         <v>252</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O78" s="1" t="n">
         <v>288</v>
@@ -5219,7 +5225,7 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>14</v>
@@ -5243,7 +5249,7 @@
         <v>252</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O79" s="1" t="n">
         <v>285</v>
@@ -5257,7 +5263,7 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>14</v>
@@ -5281,7 +5287,7 @@
         <v>252</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O80" s="1" t="n">
         <v>272</v>
@@ -5295,7 +5301,7 @@
     </row>
     <row r="81" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>14</v>
@@ -5319,7 +5325,7 @@
         <v>252</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O81" s="1" t="n">
         <v>288</v>
@@ -5333,7 +5339,7 @@
     </row>
     <row r="82" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>14</v>
@@ -5357,7 +5363,7 @@
         <v>252</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O82" s="1" t="n">
         <v>287</v>
@@ -5371,7 +5377,7 @@
     </row>
     <row r="83" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>14</v>
@@ -5395,7 +5401,7 @@
         <v>252</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O83" s="1" t="n">
         <v>287</v>
@@ -5409,7 +5415,7 @@
     </row>
     <row r="84" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>14</v>
@@ -5433,7 +5439,7 @@
         <v>252</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O84" s="1" t="n">
         <v>0.42</v>
@@ -5447,7 +5453,7 @@
     </row>
     <row r="85" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>14</v>
@@ -5471,7 +5477,7 @@
         <v>252</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O85" s="1" t="n">
         <v>1.12569444444444</v>
@@ -5485,7 +5491,7 @@
     </row>
     <row r="86" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>14</v>
@@ -5509,7 +5515,7 @@
         <v>252</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O86" s="1" t="n">
         <v>1.87725694444444</v>
@@ -5523,7 +5529,7 @@
     </row>
     <row r="87" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>14</v>
@@ -5547,7 +5553,7 @@
         <v>252</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O87" s="1" t="n">
         <v>2.6</v>
@@ -5561,7 +5567,7 @@
     </row>
     <row r="88" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>14</v>
@@ -5585,7 +5591,7 @@
         <v>252</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O88" s="1" t="n">
         <v>6.32958333333333</v>
@@ -5599,7 +5605,7 @@
     </row>
     <row r="89" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>14</v>
@@ -5623,7 +5629,7 @@
         <v>252</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O89" s="1" t="n">
         <v>13.7240277777778</v>
@@ -5637,7 +5643,7 @@
     </row>
     <row r="90" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>14</v>
@@ -5661,7 +5667,7 @@
         <v>252</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O90" s="1" t="n">
         <v>1.61</v>
@@ -5675,7 +5681,7 @@
     </row>
     <row r="91" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>14</v>
@@ -5699,7 +5705,7 @@
         <v>252</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O91" s="1" t="n">
         <v>3.80180555555556</v>
@@ -5713,7 +5719,7 @@
     </row>
     <row r="92" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>14</v>
@@ -5737,7 +5743,7 @@
         <v>252</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O92" s="1" t="n">
         <v>7.40684027777778</v>
@@ -5751,7 +5757,7 @@
     </row>
     <row r="93" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>14</v>
@@ -5775,7 +5781,7 @@
         <v>252</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O93" s="1" t="n">
         <v>1</v>
@@ -5789,7 +5795,7 @@
     </row>
     <row r="94" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>14</v>
@@ -5813,7 +5819,7 @@
         <v>252</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O94" s="1" t="n">
         <v>1</v>
@@ -5827,7 +5833,7 @@
     </row>
     <row r="95" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>14</v>
@@ -5851,7 +5857,7 @@
         <v>252</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O95" s="1" t="n">
         <v>1</v>
@@ -5865,7 +5871,7 @@
     </row>
     <row r="96" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>14</v>
@@ -5889,7 +5895,7 @@
         <v>252</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O96" s="1" t="n">
         <v>1</v>
@@ -5903,7 +5909,7 @@
     </row>
     <row r="97" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>14</v>
@@ -5927,7 +5933,7 @@
         <v>252</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O97" s="1" t="n">
         <v>0.99</v>
@@ -5941,7 +5947,7 @@
     </row>
     <row r="98" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>14</v>
@@ -5965,7 +5971,7 @@
         <v>252</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O98" s="1" t="n">
         <v>0.94</v>
@@ -5979,7 +5985,7 @@
     </row>
     <row r="99" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>14</v>
@@ -6003,7 +6009,7 @@
         <v>252</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O99" s="1" t="n">
         <v>1</v>
@@ -6017,7 +6023,7 @@
     </row>
     <row r="100" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>14</v>
@@ -6041,7 +6047,7 @@
         <v>252</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O100" s="1" t="n">
         <v>1</v>
@@ -6055,7 +6061,7 @@
     </row>
     <row r="101" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>14</v>
@@ -6079,7 +6085,7 @@
         <v>252</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O101" s="1" t="n">
         <v>1</v>
@@ -6093,7 +6099,7 @@
     </row>
     <row r="102" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>14</v>
@@ -6117,7 +6123,7 @@
         <v>316</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O102" s="1" t="n">
         <v>288</v>
@@ -6131,7 +6137,7 @@
     </row>
     <row r="103" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>14</v>
@@ -6155,7 +6161,7 @@
         <v>316</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O103" s="1" t="n">
         <v>1.39</v>
@@ -6169,7 +6175,7 @@
     </row>
     <row r="104" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>14</v>
@@ -6193,7 +6199,7 @@
         <v>316</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O104" s="1" t="n">
         <v>1</v>
@@ -6207,7 +6213,7 @@
     </row>
     <row r="105" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>14</v>
@@ -6231,7 +6237,7 @@
         <v>327</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O105" s="1" t="n">
         <v>288</v>
@@ -6245,7 +6251,7 @@
     </row>
     <row r="106" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>14</v>
@@ -6269,7 +6275,7 @@
         <v>327</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O106" s="1" t="n">
         <v>2.89</v>
@@ -6283,7 +6289,7 @@
     </row>
     <row r="107" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>14</v>
@@ -6307,7 +6313,7 @@
         <v>327</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O107" s="1" t="n">
         <v>1</v>
@@ -6321,7 +6327,7 @@
     </row>
     <row r="108" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>14</v>
@@ -6345,7 +6351,7 @@
         <v>337</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O108" s="1" t="n">
         <v>288</v>
@@ -6359,7 +6365,7 @@
     </row>
     <row r="109" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>14</v>
@@ -6383,7 +6389,7 @@
         <v>337</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O109" s="1" t="n">
         <v>0.37</v>
@@ -6397,7 +6403,7 @@
     </row>
     <row r="110" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>14</v>
@@ -6421,7 +6427,7 @@
         <v>337</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O110" s="1" t="n">
         <v>1</v>
@@ -6435,7 +6441,7 @@
     </row>
     <row r="111" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>14</v>
@@ -6459,7 +6465,7 @@
         <v>349</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O111" s="1" t="n">
         <v>288</v>
@@ -6473,7 +6479,7 @@
     </row>
     <row r="112" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>14</v>
@@ -6497,7 +6503,7 @@
         <v>349</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O112" s="1" t="n">
         <v>1.49</v>
@@ -6511,7 +6517,7 @@
     </row>
     <row r="113" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>14</v>
@@ -6535,7 +6541,7 @@
         <v>349</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O113" s="1" t="n">
         <v>1</v>
@@ -6549,7 +6555,7 @@
     </row>
     <row r="114" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>14</v>
@@ -6573,7 +6579,7 @@
         <v>359</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O114" s="1" t="n">
         <v>288</v>
@@ -6587,7 +6593,7 @@
     </row>
     <row r="115" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>14</v>
@@ -6611,7 +6617,7 @@
         <v>359</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O115" s="1" t="n">
         <v>1.49</v>
@@ -6625,7 +6631,7 @@
     </row>
     <row r="116" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>14</v>
@@ -6649,7 +6655,7 @@
         <v>359</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O116" s="1" t="n">
         <v>1</v>
@@ -6663,7 +6669,7 @@
     </row>
     <row r="117" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>14</v>
@@ -6687,7 +6693,7 @@
         <v>369</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O117" s="1" t="n">
         <v>288</v>
@@ -6701,7 +6707,7 @@
     </row>
     <row r="118" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>14</v>
@@ -6725,7 +6731,7 @@
         <v>369</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O118" s="1" t="n">
         <v>2.7</v>
@@ -6739,7 +6745,7 @@
     </row>
     <row r="119" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>14</v>
@@ -6763,7 +6769,7 @@
         <v>369</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O119" s="1" t="n">
         <v>1</v>
@@ -6801,7 +6807,7 @@
         <v>380</v>
       </c>
       <c r="N120" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O120" s="1" t="n">
         <v>1908</v>
@@ -6815,7 +6821,7 @@
     </row>
     <row r="121" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>14</v>
@@ -6839,7 +6845,7 @@
         <v>388</v>
       </c>
       <c r="N121" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O121" s="1" t="n">
         <v>2546</v>
@@ -6850,7 +6856,7 @@
     </row>
     <row r="122" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>14</v>
@@ -6874,7 +6880,7 @@
         <v>388</v>
       </c>
       <c r="N122" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O122" s="1" t="n">
         <v>8874</v>
@@ -6885,7 +6891,7 @@
     </row>
     <row r="123" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>14</v>
@@ -6909,7 +6915,7 @@
         <v>388</v>
       </c>
       <c r="N123" s="7" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O123" s="1" t="n">
         <v>155.96</v>
@@ -6920,7 +6926,7 @@
     </row>
     <row r="124" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>14</v>
@@ -6944,7 +6950,7 @@
         <v>388</v>
       </c>
       <c r="N124" s="7" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O124" s="1" t="n">
         <v>543.59</v>
@@ -6979,7 +6985,7 @@
         <v>402</v>
       </c>
       <c r="N125" s="7" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O125" s="1" t="n">
         <v>56.3</v>
@@ -7011,7 +7017,7 @@
         <v>402</v>
       </c>
       <c r="N126" s="7" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O126" s="1" t="n">
         <v>10.5</v>
@@ -7043,7 +7049,7 @@
         <v>402</v>
       </c>
       <c r="N127" s="7" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O127" s="1" t="n">
         <v>10.6</v>
@@ -7075,7 +7081,7 @@
         <v>402</v>
       </c>
       <c r="N128" s="7" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O128" s="1" t="n">
         <v>16.3</v>
@@ -7107,7 +7113,7 @@
         <v>402</v>
       </c>
       <c r="N129" s="7" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O129" s="1" t="n">
         <v>15.7</v>
@@ -7139,7 +7145,7 @@
         <v>402</v>
       </c>
       <c r="N130" s="7" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O130" s="1" t="n">
         <v>17.1</v>
@@ -7171,7 +7177,7 @@
         <v>402</v>
       </c>
       <c r="N131" s="7" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O131" s="1" t="n">
         <v>19.8</v>
@@ -7203,7 +7209,7 @@
         <v>402</v>
       </c>
       <c r="N132" s="7" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O132" s="1" t="n">
         <v>24.5</v>
@@ -7211,77 +7217,74 @@
     </row>
     <row r="133" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>47</v>
+        <v>374</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H133" s="1" t="s">
+      <c r="H133" s="7" t="s">
         <v>417</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>418</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="K133" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="L133" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="M133" s="1" t="s">
-        <v>422</v>
+        <v>400</v>
+      </c>
+      <c r="K133" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="L133" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="M133" s="7" t="s">
+        <v>402</v>
       </c>
       <c r="N133" s="7" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O133" s="1" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="Q133" s="1" t="s">
-        <v>423</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H134" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="M134" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="I134" s="1" t="s">
+      <c r="N134" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O134" s="1" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="Q134" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="K134" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="L134" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="M134" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="N134" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="O134" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q134" s="1" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>14</v>
@@ -7293,30 +7296,30 @@
         <v>427</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="N135" s="7" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O135" s="1" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Q135" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>14</v>
@@ -7324,69 +7327,69 @@
       <c r="H136" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="I136" s="8" t="s">
+      <c r="I136" s="1" t="s">
         <v>429</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="N136" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O136" s="1" t="s">
-        <v>430</v>
+        <v>424</v>
+      </c>
+      <c r="N136" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O136" s="1" t="n">
+        <v>0.01</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H137" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="I137" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="I137" s="11" t="s">
+      <c r="J137" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O137" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="J137" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="K137" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="L137" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="M137" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="N137" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O137" s="1" t="n">
-        <v>1585873</v>
-      </c>
       <c r="Q137" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>14</v>
@@ -7394,34 +7397,34 @@
       <c r="H138" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="I138" s="1" t="s">
+      <c r="I138" s="11" t="s">
         <v>434</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O138" s="1" t="n">
         <v>1585873</v>
       </c>
       <c r="Q138" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>14</v>
@@ -7433,30 +7436,30 @@
         <v>436</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O139" s="1" t="n">
-        <v>0</v>
+        <v>1585873</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>14</v>
@@ -7468,30 +7471,30 @@
         <v>438</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="O140" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>14</v>
@@ -7503,22 +7506,25 @@
         <v>440</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>445</v>
+        <v>31</v>
       </c>
       <c r="O141" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q141" s="1" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7529,31 +7535,28 @@
         <v>14</v>
       </c>
       <c r="H142" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="M142" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="I142" s="1" t="s">
+      <c r="N142" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="J142" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="K142" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="L142" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="M142" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="N142" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="O142" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q142" s="1" t="s">
-        <v>450</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7564,33 +7567,32 @@
         <v>14</v>
       </c>
       <c r="H143" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="L143" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="I143" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="J143" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="K143" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="L143" s="1" t="s">
-        <v>454</v>
-      </c>
       <c r="M143" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="O143" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P143" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q143" s="12"/>
+      <c r="Q143" s="1" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
@@ -7600,35 +7602,33 @@
         <v>14</v>
       </c>
       <c r="H144" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="L144" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="I144" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="J144" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="K144" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="L144" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="M144" s="1" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O144" s="1" t="n">
         <v>0.42</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q144" s="1" t="s">
-        <v>463</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="Q144" s="12"/>
     </row>
     <row r="145" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
@@ -7638,34 +7638,34 @@
         <v>14</v>
       </c>
       <c r="H145" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="N145" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O145" s="1" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="P145" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="I145" s="1" t="s">
+      <c r="Q145" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="J145" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="K145" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="L145" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="M145" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="N145" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O145" s="1" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P145" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q145" s="1" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7682,28 +7682,28 @@
         <v>467</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O146" s="1" t="n">
-        <v>0.96</v>
+        <v>0.01</v>
       </c>
       <c r="P146" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q146" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7720,28 +7720,28 @@
         <v>469</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O147" s="1" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q147" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7758,109 +7758,109 @@
         <v>471</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O148" s="1" t="n">
-        <v>0.55</v>
+        <v>0.97</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q148" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H149" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="F149" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H149" s="1" t="s">
+      <c r="I149" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="I149" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="J149" s="1" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O149" s="1" t="n">
-        <v>373.6</v>
+        <v>0.55</v>
       </c>
       <c r="P149" s="1" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="Q149" s="1" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H150" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="N150" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O150" s="1" t="n">
+        <v>373.6</v>
+      </c>
+      <c r="P150" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="I150" s="1" t="s">
+      <c r="Q150" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="J150" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="K150" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="L150" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="M150" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="N150" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O150" s="1" t="n">
-        <v>21.24</v>
-      </c>
-      <c r="P150" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q150" s="1" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>14</v>
@@ -7872,33 +7872,33 @@
         <v>484</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O151" s="1" t="n">
-        <v>752.06</v>
+        <v>21.24</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q151" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>14</v>
@@ -7910,33 +7910,33 @@
         <v>486</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O152" s="1" t="n">
-        <v>18.42</v>
+        <v>752.06</v>
       </c>
       <c r="P152" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q152" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>14</v>
@@ -7948,33 +7948,33 @@
         <v>488</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O153" s="1" t="n">
-        <v>895.68</v>
+        <v>18.42</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q153" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>14</v>
@@ -7986,33 +7986,33 @@
         <v>490</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M154" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O154" s="1" t="n">
-        <v>438.21</v>
+        <v>895.68</v>
       </c>
       <c r="P154" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q154" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>14</v>
@@ -8024,33 +8024,33 @@
         <v>492</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M155" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N155" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O155" s="1" t="n">
-        <v>549.45</v>
+        <v>438.21</v>
       </c>
       <c r="P155" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q155" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>14</v>
@@ -8062,33 +8062,33 @@
         <v>494</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O156" s="1" t="n">
-        <v>83.14</v>
+        <v>549.45</v>
       </c>
       <c r="P156" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q156" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>14</v>
@@ -8100,33 +8100,33 @@
         <v>496</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M157" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N157" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O157" s="1" t="n">
-        <v>140.33</v>
+        <v>83.14</v>
       </c>
       <c r="P157" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q157" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>14</v>
@@ -8138,33 +8138,33 @@
         <v>498</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N158" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O158" s="1" t="n">
-        <v>11.25</v>
+        <v>140.33</v>
       </c>
       <c r="P158" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q158" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>14</v>
@@ -8176,33 +8176,33 @@
         <v>500</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M159" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O159" s="1" t="n">
-        <v>278.96</v>
+        <v>11.25</v>
       </c>
       <c r="P159" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q159" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>14</v>
@@ -8214,33 +8214,33 @@
         <v>502</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O160" s="1" t="n">
-        <v>4.11</v>
+        <v>278.96</v>
       </c>
       <c r="P160" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q160" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>14</v>
@@ -8252,33 +8252,33 @@
         <v>504</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M161" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O161" s="1" t="n">
-        <v>320.86</v>
+        <v>4.11</v>
       </c>
       <c r="P161" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q161" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>14</v>
@@ -8290,33 +8290,33 @@
         <v>506</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M162" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O162" s="1" t="n">
-        <v>174.65</v>
+        <v>320.86</v>
       </c>
       <c r="P162" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q162" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>14</v>
@@ -8328,33 +8328,33 @@
         <v>508</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M163" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O163" s="1" t="n">
-        <v>290.89</v>
+        <v>174.65</v>
       </c>
       <c r="P163" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q163" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>14</v>
@@ -8366,33 +8366,33 @@
         <v>510</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M164" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O164" s="1" t="n">
-        <v>30.33</v>
+        <v>290.89</v>
       </c>
       <c r="P164" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q164" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>14</v>
@@ -8404,33 +8404,33 @@
         <v>512</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M165" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N165" s="1" t="s">
         <v>31</v>
       </c>
       <c r="O165" s="1" t="n">
-        <v>21605</v>
+        <v>30.33</v>
       </c>
       <c r="P165" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q165" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>14</v>
@@ -8442,33 +8442,33 @@
         <v>514</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M166" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O166" s="1" t="n">
-        <v>636</v>
+        <v>21605</v>
       </c>
       <c r="P166" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q166" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>14</v>
@@ -8480,33 +8480,33 @@
         <v>516</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M167" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O167" s="1" t="n">
-        <v>20969</v>
+        <v>636</v>
       </c>
       <c r="P167" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q167" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>14</v>
@@ -8518,33 +8518,33 @@
         <v>518</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M168" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N168" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O168" s="1" t="n">
-        <v>166</v>
+        <v>20969</v>
       </c>
       <c r="P168" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q168" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>14</v>
@@ -8556,33 +8556,33 @@
         <v>520</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O169" s="1" t="n">
-        <v>11861</v>
+        <v>166</v>
       </c>
       <c r="P169" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q169" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>14</v>
@@ -8594,33 +8594,33 @@
         <v>522</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M170" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O170" s="1" t="n">
-        <v>7359</v>
+        <v>11861</v>
       </c>
       <c r="P170" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q170" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>14</v>
@@ -8632,33 +8632,33 @@
         <v>524</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N171" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O171" s="1" t="n">
-        <v>102</v>
+        <v>7359</v>
       </c>
       <c r="P171" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q171" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>14</v>
@@ -8670,33 +8670,33 @@
         <v>526</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M172" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O172" s="1" t="n">
-        <v>1546</v>
+        <v>102</v>
       </c>
       <c r="P172" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q172" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>14</v>
@@ -8708,33 +8708,33 @@
         <v>528</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O173" s="1" t="n">
-        <v>8115</v>
+        <v>1546</v>
       </c>
       <c r="P173" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q173" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>14</v>
@@ -8746,33 +8746,33 @@
         <v>530</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M174" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N174" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O174" s="1" t="n">
-        <v>337</v>
+        <v>8115</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q174" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>14</v>
@@ -8784,33 +8784,33 @@
         <v>532</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N175" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O175" s="1" t="n">
-        <v>7778</v>
+        <v>337</v>
       </c>
       <c r="P175" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q175" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>14</v>
@@ -8822,33 +8822,33 @@
         <v>534</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O176" s="1" t="n">
-        <v>37</v>
+        <v>7778</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q176" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>14</v>
@@ -8860,33 +8860,33 @@
         <v>536</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O177" s="1" t="n">
-        <v>4249</v>
+        <v>37</v>
       </c>
       <c r="P177" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q177" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>14</v>
@@ -8898,33 +8898,33 @@
         <v>538</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M178" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N178" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O178" s="1" t="n">
-        <v>2933</v>
+        <v>4249</v>
       </c>
       <c r="P178" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q178" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>14</v>
@@ -8936,33 +8936,33 @@
         <v>540</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M179" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N179" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O179" s="1" t="n">
-        <v>54</v>
+        <v>2933</v>
       </c>
       <c r="P179" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q179" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>14</v>
@@ -8974,33 +8974,33 @@
         <v>542</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M180" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N180" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O180" s="1" t="n">
-        <v>564</v>
+        <v>54</v>
       </c>
       <c r="P180" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q180" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>14</v>
@@ -9012,71 +9012,71 @@
         <v>544</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>545</v>
+        <v>477</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>546</v>
+        <v>478</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>547</v>
+        <v>479</v>
       </c>
       <c r="M181" s="1" t="s">
-        <v>548</v>
+        <v>480</v>
       </c>
       <c r="N181" s="1" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="O181" s="1" t="n">
-        <v>230.32</v>
+        <v>564</v>
       </c>
       <c r="P181" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q181" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H182" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="I182" s="1" t="s">
+      <c r="M182" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="J182" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="K182" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="L182" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="M182" s="1" t="s">
-        <v>548</v>
-      </c>
       <c r="N182" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O182" s="1" t="n">
-        <v>29.02</v>
+        <v>230.32</v>
       </c>
       <c r="P182" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q182" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>14</v>
@@ -9088,33 +9088,33 @@
         <v>552</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M183" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="N183" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O183" s="1" t="n">
-        <v>439.39</v>
+        <v>29.02</v>
       </c>
       <c r="P183" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q183" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>14</v>
@@ -9126,33 +9126,33 @@
         <v>554</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M184" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="N184" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O184" s="1" t="n">
-        <v>47.69</v>
+        <v>439.39</v>
       </c>
       <c r="P184" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q184" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>14</v>
@@ -9164,33 +9164,33 @@
         <v>556</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M185" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="N185" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O185" s="1" t="n">
-        <v>491.34</v>
+        <v>47.69</v>
       </c>
       <c r="P185" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q185" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>14</v>
@@ -9202,33 +9202,33 @@
         <v>558</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M186" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="N186" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O186" s="1" t="n">
-        <v>186.29</v>
+        <v>491.34</v>
       </c>
       <c r="P186" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q186" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>14</v>
@@ -9240,33 +9240,33 @@
         <v>560</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M187" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="N187" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O187" s="1" t="n">
-        <v>108.03</v>
+        <v>186.29</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q187" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>14</v>
@@ -9278,33 +9278,33 @@
         <v>562</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M188" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="N188" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O188" s="1" t="n">
-        <v>151.84</v>
+        <v>108.03</v>
       </c>
       <c r="P188" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q188" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>14</v>
@@ -9316,33 +9316,33 @@
         <v>564</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M189" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="N189" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O189" s="1" t="n">
-        <v>1260.84</v>
+        <v>151.84</v>
       </c>
       <c r="P189" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q189" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>14</v>
@@ -9354,33 +9354,33 @@
         <v>566</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M190" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="N190" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O190" s="1" t="n">
-        <v>107.3</v>
+        <v>1260.84</v>
       </c>
       <c r="P190" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q190" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>14</v>
@@ -9392,33 +9392,33 @@
         <v>568</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M191" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="N191" s="1" t="s">
         <v>31</v>
       </c>
       <c r="O191" s="1" t="n">
-        <v>13201</v>
+        <v>107.3</v>
       </c>
       <c r="P191" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q191" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>14</v>
@@ -9430,33 +9430,33 @@
         <v>570</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M192" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="N192" s="1" t="s">
         <v>31</v>
       </c>
       <c r="O192" s="1" t="n">
-        <v>861</v>
+        <v>13201</v>
       </c>
       <c r="P192" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q192" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>14</v>
@@ -9468,33 +9468,33 @@
         <v>572</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M193" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="N193" s="1" t="s">
         <v>31</v>
       </c>
       <c r="O193" s="1" t="n">
-        <v>12149</v>
+        <v>861</v>
       </c>
       <c r="P193" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q193" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>14</v>
@@ -9506,33 +9506,33 @@
         <v>574</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M194" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="N194" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O194" s="1" t="n">
-        <v>431.09</v>
+        <v>12149</v>
       </c>
       <c r="P194" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q194" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>14</v>
@@ -9544,33 +9544,33 @@
         <v>576</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M195" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="N195" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O195" s="1" t="n">
-        <v>45.67</v>
+        <v>431.09</v>
       </c>
       <c r="P195" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q195" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>14</v>
@@ -9582,33 +9582,33 @@
         <v>578</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M196" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="N196" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O196" s="1" t="n">
-        <v>3.24</v>
+        <v>45.67</v>
       </c>
       <c r="P196" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q196" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>14</v>
@@ -9620,33 +9620,33 @@
         <v>580</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M197" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="N197" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O197" s="1" t="n">
-        <v>1.14</v>
+        <v>3.24</v>
       </c>
       <c r="P197" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q197" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>14</v>
@@ -9658,33 +9658,33 @@
         <v>582</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M198" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="N198" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O198" s="1" t="n">
-        <v>288</v>
+        <v>1.14</v>
       </c>
       <c r="P198" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q198" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>14</v>
@@ -9696,33 +9696,33 @@
         <v>584</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M199" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="N199" s="1" t="s">
         <v>31</v>
       </c>
       <c r="O199" s="1" t="n">
-        <v>72266</v>
+        <v>288</v>
       </c>
       <c r="P199" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q199" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>14</v>
@@ -9734,28 +9734,66 @@
         <v>586</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L200" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="M200" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="N200" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O200" s="1" t="n">
+        <v>72266</v>
+      </c>
+      <c r="P200" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q200" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="J201" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="M200" s="1" t="s">
+      <c r="K201" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="N200" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O200" s="1" t="n">
+      <c r="L201" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="M201" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="N201" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O201" s="1" t="n">
         <v>6150</v>
       </c>
-      <c r="P200" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q200" s="1" t="s">
-        <v>480</v>
+      <c r="P201" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q201" s="1" t="s">
+        <v>482</v>
       </c>
     </row>
   </sheetData>

--- a/data_final/dictionaries/C_Dict.xlsx
+++ b/data_final/dictionaries/C_Dict.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="590">
   <si>
     <t xml:space="preserve">Theme</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">Variable</t>
   </si>
   <si>
+    <t xml:space="preserve">Title</t>
+  </si>
+  <si>
     <t xml:space="preserve">Description</t>
   </si>
   <si>
@@ -46,7 +49,7 @@
     <t xml:space="preserve">Source Long</t>
   </si>
   <si>
-    <t xml:space="preserve">OEPSv1</t>
+    <t xml:space="preserve">OEPS v1 Table</t>
   </si>
   <si>
     <t xml:space="preserve">Type</t>
@@ -1973,12 +1976,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q201"/>
+  <dimension ref="A1:R201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="O204" activeCellId="0" sqref="O204"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1988,15 +1991,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="6.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="51.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="109.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="19.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="7.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="1" width="12.97"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="18" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="51.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="109.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="19.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="12.97"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="19" style="1" width="11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2024,7 +2027,7 @@
       <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -2051,117 +2054,120 @@
       <c r="Q1" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="R1" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="M2" s="3"/>
-      <c r="N2" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="N2" s="3"/>
       <c r="O2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="I3" s="7"/>
+      <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="1" t="n">
+      <c r="L3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="1" t="n">
         <v>36061</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="1" t="s">
         <v>27</v>
       </c>
@@ -2177,29 +2183,30 @@
       <c r="N4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="1" t="n">
+      <c r="O4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="1" t="n">
         <v>1632480</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="R4" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="1" t="s">
         <v>36</v>
       </c>
@@ -2215,29 +2222,30 @@
       <c r="N5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="1" t="n">
+      <c r="O5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="1" t="n">
         <v>1572775</v>
       </c>
-      <c r="Q5" s="8" t="s">
-        <v>41</v>
+      <c r="R5" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="1" t="s">
         <v>44</v>
       </c>
@@ -2251,40 +2259,41 @@
         <v>47</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="1" t="n">
         <v>32519</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="1" t="s">
         <v>51</v>
       </c>
@@ -2298,83 +2307,85 @@
         <v>54</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="1" t="n">
         <v>874237</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>55</v>
+      <c r="Q7" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="1" t="n">
         <v>897040</v>
       </c>
-      <c r="P8" s="8" t="s">
-        <v>61</v>
+      <c r="Q8" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>29</v>
@@ -2385,46 +2396,47 @@
       <c r="N9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="1" t="n">
+      <c r="O9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="1" t="n">
         <v>56.2</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>32</v>
+      <c r="Q9" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>29</v>
@@ -2435,46 +2447,47 @@
       <c r="N10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O10" s="1" t="n">
+      <c r="O10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="1" t="n">
         <v>14.81</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>32</v>
+      <c r="Q10" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>29</v>
@@ -2485,46 +2498,47 @@
       <c r="N11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O11" s="1" t="n">
+      <c r="O11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="1" t="n">
         <v>0.43</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>32</v>
+      <c r="Q11" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>29</v>
@@ -2535,46 +2549,47 @@
       <c r="N12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O12" s="1" t="n">
+      <c r="O12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="1" t="n">
         <v>12.03</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>32</v>
+      <c r="Q12" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>29</v>
@@ -2585,46 +2600,47 @@
       <c r="N13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O13" s="1" t="n">
+      <c r="O13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>32</v>
+      <c r="Q13" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>29</v>
@@ -2635,46 +2651,47 @@
       <c r="N14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O14" s="1" t="n">
+      <c r="O14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="1" t="n">
         <v>16.48</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>32</v>
+      <c r="Q14" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>29</v>
@@ -2685,43 +2702,44 @@
       <c r="N15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O15" s="1" t="n">
+      <c r="O15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="1" t="n">
         <v>25.95</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>32</v>
+      <c r="Q15" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>28</v>
@@ -2729,46 +2747,47 @@
       <c r="L16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O16" s="1" t="n">
+      <c r="M16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="1" t="n">
         <v>0.14</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>32</v>
+      <c r="Q16" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="I17" s="7"/>
       <c r="J17" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>28</v>
@@ -2782,43 +2801,44 @@
       <c r="N17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="1" t="n">
+      <c r="O17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="1" t="n">
         <v>11.24</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>32</v>
+      <c r="Q17" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="I18" s="7"/>
       <c r="J18" s="1" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>28</v>
@@ -2832,43 +2852,44 @@
       <c r="N18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O18" s="1" t="n">
+      <c r="O18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="1" t="n">
         <v>60.43</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>32</v>
+      <c r="Q18" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="I19" s="7"/>
       <c r="J19" s="1" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>28</v>
@@ -2882,43 +2903,44 @@
       <c r="N19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O19" s="1" t="n">
+      <c r="O19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="1" t="n">
         <v>15.77</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>32</v>
+      <c r="Q19" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="I20" s="7"/>
       <c r="J20" s="1" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>28</v>
@@ -2932,43 +2954,44 @@
       <c r="N20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O20" s="1" t="n">
+      <c r="O20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" s="1" t="n">
         <v>79897</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>32</v>
+      <c r="Q20" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I21" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I21" s="7"/>
       <c r="J21" s="1" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>28</v>
@@ -2982,43 +3005,44 @@
       <c r="N21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O21" s="1" t="n">
+      <c r="O21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="1" t="n">
         <v>122034</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>32</v>
+      <c r="Q21" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="I22" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="1" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>28</v>
@@ -3032,43 +3056,44 @@
       <c r="N22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O22" s="1" t="n">
+      <c r="O22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="1" t="n">
         <v>68706</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>32</v>
+      <c r="Q22" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I23" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="1" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>28</v>
@@ -3082,43 +3107,44 @@
       <c r="N23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O23" s="1" t="n">
+      <c r="O23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" s="1" t="n">
         <v>114772</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>32</v>
+      <c r="Q23" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="I24" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="I24" s="7"/>
       <c r="J24" s="1" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>28</v>
@@ -3132,169 +3158,173 @@
       <c r="N24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O24" s="1" t="n">
+      <c r="O24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24" s="1" t="n">
         <v>784568</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>32</v>
+      <c r="Q24" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="I25" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="I25" s="7"/>
       <c r="J25" s="1" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>98</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O25" s="1" t="n">
+      <c r="O25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" s="1" t="n">
         <v>105</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="R25" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I26" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="I26" s="7"/>
       <c r="J26" s="1" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O26" s="1" t="n">
+      <c r="O26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" s="1" t="n">
         <v>103680</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>32</v>
+      <c r="Q26" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I27" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="I27" s="7"/>
       <c r="J27" s="1" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O27" s="1" t="n">
+      <c r="O27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" s="1" t="n">
         <v>100146</v>
       </c>
-      <c r="P27" s="1" t="s">
-        <v>32</v>
+      <c r="Q27" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I28" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="I28" s="7"/>
       <c r="J28" s="1" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>28</v>
@@ -3308,43 +3338,44 @@
       <c r="N28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O28" s="1" t="n">
+      <c r="O28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" s="1" t="n">
         <v>94082</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>32</v>
+      <c r="Q28" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I29" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="I29" s="7"/>
       <c r="J29" s="1" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>28</v>
@@ -3358,43 +3389,44 @@
       <c r="N29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O29" s="1" t="n">
+      <c r="O29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" s="1" t="n">
         <v>90711</v>
       </c>
-      <c r="P29" s="1" t="s">
-        <v>32</v>
+      <c r="Q29" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I30" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="I30" s="7"/>
       <c r="J30" s="1" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>28</v>
@@ -3408,75 +3440,77 @@
       <c r="N30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O30" s="1" t="n">
+      <c r="O30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" s="1" t="n">
         <v>257362</v>
       </c>
-      <c r="P30" s="1" t="s">
-        <v>32</v>
+      <c r="Q30" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I31" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="I31" s="7"/>
       <c r="J31" s="1" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O31" s="1" t="n">
+      <c r="O31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P31" s="1" t="n">
         <v>1396709</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I32" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="I32" s="7"/>
       <c r="J32" s="1" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>28</v>
@@ -3490,32 +3524,33 @@
       <c r="N32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O32" s="1" t="n">
+      <c r="O32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" s="1" t="n">
         <v>1139347</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>32</v>
+      <c r="Q32" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="I33" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="I33" s="7"/>
       <c r="J33" s="1" t="s">
         <v>119</v>
       </c>
@@ -3526,186 +3561,191 @@
         <v>121</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O33" s="1" t="n">
+      <c r="O33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P33" s="1" t="n">
         <v>10.3</v>
       </c>
-      <c r="P33" s="1" t="s">
-        <v>32</v>
+      <c r="Q33" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I34" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="I34" s="7"/>
       <c r="J34" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K34" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>120</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>30</v>
+        <v>121</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O34" s="1" t="n">
+      <c r="O34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P34" s="1" t="n">
         <v>13.01</v>
       </c>
-      <c r="P34" s="1" t="s">
-        <v>32</v>
+      <c r="Q34" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="I35" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="I35" s="7"/>
       <c r="J35" s="1" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>128</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O35" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" s="1" t="n">
         <v>2.33</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H36" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="N36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O36" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36" s="1" t="n">
         <v>2.39</v>
       </c>
-      <c r="Q36" s="8" t="s">
-        <v>41</v>
+      <c r="R36" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H37" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L37" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="M37" s="1" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O37" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37" s="1" t="n">
         <v>24.71</v>
       </c>
-      <c r="Q37" s="8" t="s">
-        <v>134</v>
+      <c r="R37" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="I38" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="I38" s="7"/>
       <c r="J38" s="1" t="s">
         <v>137</v>
       </c>
@@ -3719,33 +3759,34 @@
         <v>140</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O38" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P38" s="1" t="n">
         <v>35511</v>
       </c>
-      <c r="P38" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q38" s="1" t="s">
+      <c r="Q38" s="8" t="s">
         <v>142</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="I39" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="I39" s="7"/>
       <c r="J39" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>138</v>
@@ -3757,33 +3798,34 @@
         <v>140</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O39" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P39" s="1" t="n">
         <v>33673</v>
       </c>
-      <c r="P39" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q39" s="1" t="s">
+      <c r="Q39" s="8" t="s">
         <v>142</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="I40" s="1" t="s">
         <v>146</v>
       </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>138</v>
@@ -3795,50 +3837,51 @@
         <v>140</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O40" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P40" s="1" t="n">
         <v>35342</v>
       </c>
-      <c r="P40" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q40" s="1" t="s">
+      <c r="Q40" s="8" t="s">
         <v>142</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="I41" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="K41" s="1" t="s">
         <v>150</v>
       </c>
       <c r="L41" s="7" t="s">
@@ -3847,51 +3890,52 @@
       <c r="M41" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="N41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O41" s="1" t="n">
+      <c r="N41" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P41" s="1" t="n">
         <v>5.7</v>
       </c>
-      <c r="P41" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="Q41" s="1" t="s">
-        <v>153</v>
+        <v>56</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="I42" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K42" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>150</v>
       </c>
       <c r="L42" s="7" t="s">
@@ -3900,102 +3944,105 @@
       <c r="M42" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="N42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O42" s="1" t="n">
+      <c r="N42" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P42" s="1" t="n">
         <v>16.6</v>
       </c>
-      <c r="P42" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="Q42" s="1" t="s">
-        <v>153</v>
+        <v>56</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="I43" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O43" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P43" s="1" t="n">
         <v>48748</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="I44" s="1" t="s">
         <v>160</v>
       </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>121</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O44" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P44" s="1" t="n">
         <v>72832</v>
       </c>
-      <c r="Q44" s="1" t="s">
-        <v>153</v>
+      <c r="R44" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="I45" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="I45" s="7"/>
       <c r="J45" s="1" t="s">
         <v>163</v>
       </c>
@@ -4009,33 +4056,34 @@
         <v>166</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O45" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P45" s="1" t="n">
         <v>2.94</v>
       </c>
-      <c r="P45" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q45" s="1" t="s">
+      <c r="Q45" s="8" t="s">
         <v>168</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="I46" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="I46" s="7"/>
       <c r="J46" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>164</v>
@@ -4047,273 +4095,281 @@
         <v>166</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O46" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P46" s="1" t="n">
         <v>6.72</v>
       </c>
-      <c r="P46" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q46" s="1" t="s">
+      <c r="Q46" s="8" t="s">
         <v>168</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="I47" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="I47" s="7"/>
       <c r="J47" s="1" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O47" s="1" t="n">
+      <c r="M47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P47" s="1" t="n">
         <v>0.5971</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="I48" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="I48" s="7"/>
       <c r="J48" s="1" t="s">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O48" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P48" s="1" t="n">
         <v>9.74</v>
       </c>
-      <c r="P48" s="8" t="s">
-        <v>61</v>
+      <c r="Q48" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="I49" s="1" t="s">
         <v>176</v>
       </c>
+      <c r="I49" s="7"/>
       <c r="J49" s="1" t="s">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O49" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P49" s="1" t="n">
         <v>5.11</v>
       </c>
-      <c r="P49" s="8" t="s">
-        <v>61</v>
+      <c r="Q49" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="I50" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="I50" s="7"/>
       <c r="J50" s="1" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O50" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P50" s="1" t="n">
         <v>12.81</v>
       </c>
-      <c r="P50" s="8" t="s">
-        <v>61</v>
+      <c r="Q50" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="I51" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="I51" s="7"/>
       <c r="J51" s="1" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O51" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P51" s="1" t="n">
         <v>7.17</v>
       </c>
-      <c r="P51" s="8" t="s">
-        <v>61</v>
+      <c r="Q51" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="I52" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="I52" s="7"/>
       <c r="J52" s="1" t="s">
         <v>183</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>184</v>
+        <v>39</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O52" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P52" s="1" t="n">
         <v>218350</v>
       </c>
-      <c r="P52" s="1" t="s">
-        <v>185</v>
+      <c r="Q52" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="I53" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="I53" s="7"/>
       <c r="J53" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>184</v>
+        <v>39</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O53" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P53" s="1" t="n">
         <v>24.34</v>
       </c>
-      <c r="P53" s="1" t="s">
-        <v>185</v>
+      <c r="Q53" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="I54" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="I54" s="7"/>
       <c r="J54" s="1" t="s">
         <v>190</v>
       </c>
@@ -4327,208 +4383,214 @@
         <v>193</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O54" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P54" s="1" t="n">
         <v>11.53</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="I55" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="I55" s="7"/>
       <c r="J55" s="1" t="s">
-        <v>51</v>
+        <v>196</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O55" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P55" s="1" t="n">
         <v>13.28</v>
       </c>
-      <c r="P55" s="1" t="s">
-        <v>55</v>
+      <c r="Q55" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="I56" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="I56" s="7"/>
       <c r="J56" s="1" t="s">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P56" s="1" t="n">
         <v>0.06</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="I57" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="I57" s="7"/>
       <c r="J57" s="1" t="s">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P57" s="1" t="n">
         <v>29.16</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="I58" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="I58" s="7"/>
       <c r="J58" s="1" t="s">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O58" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P58" s="1" t="n">
         <v>75.87</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="I59" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="I59" s="7"/>
       <c r="J59" s="1" t="s">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O59" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P59" s="1" t="n">
         <v>38586.48</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="I60" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="I60" s="10"/>
       <c r="J60" s="1" t="s">
         <v>207</v>
       </c>
@@ -4542,30 +4604,31 @@
         <v>210</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O60" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P60" s="1" t="n">
         <v>22.66</v>
       </c>
-      <c r="P60" s="8" t="s">
-        <v>211</v>
+      <c r="Q60" s="8" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="I61" s="1" t="s">
         <v>213</v>
       </c>
+      <c r="I61" s="7"/>
       <c r="J61" s="1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>208</v>
@@ -4577,30 +4640,31 @@
         <v>210</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O61" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P61" s="1" t="n">
         <v>360</v>
       </c>
-      <c r="P61" s="8" t="s">
-        <v>211</v>
+      <c r="Q61" s="8" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="I62" s="1" t="s">
         <v>215</v>
       </c>
+      <c r="I62" s="7"/>
       <c r="J62" s="1" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>208</v>
@@ -4612,30 +4676,31 @@
         <v>210</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O62" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P62" s="1" t="n">
         <v>15.89</v>
       </c>
-      <c r="P62" s="8" t="s">
-        <v>211</v>
+      <c r="Q62" s="8" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="I63" s="1" t="s">
         <v>217</v>
       </c>
+      <c r="I63" s="7"/>
       <c r="J63" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>208</v>
@@ -4647,370 +4712,380 @@
         <v>210</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O63" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P63" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P63" s="8" t="s">
-        <v>211</v>
+      <c r="Q63" s="8" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="I64" s="1" t="s">
         <v>219</v>
       </c>
+      <c r="I64" s="7"/>
       <c r="J64" s="1" t="s">
         <v>220</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O64" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P64" s="1" t="n">
         <v>0.72</v>
-      </c>
-      <c r="P64" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="Q64" s="8" t="s">
         <v>223</v>
       </c>
+      <c r="R64" s="8" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="I65" s="1" t="s">
         <v>225</v>
       </c>
+      <c r="I65" s="7"/>
       <c r="J65" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O65" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P65" s="1" t="n">
         <v>0.22</v>
-      </c>
-      <c r="P65" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="Q65" s="8" t="s">
         <v>223</v>
       </c>
+      <c r="R65" s="8" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="I66" s="1" t="s">
         <v>227</v>
       </c>
+      <c r="I66" s="7"/>
       <c r="J66" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O66" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P66" s="1" t="n">
         <v>0.36</v>
-      </c>
-      <c r="P66" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="Q66" s="8" t="s">
         <v>223</v>
       </c>
+      <c r="R66" s="8" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="I67" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="I67" s="7"/>
       <c r="J67" s="1" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O67" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P67" s="1" t="n">
         <v>0.63</v>
-      </c>
-      <c r="P67" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="Q67" s="8" t="s">
         <v>223</v>
       </c>
+      <c r="R67" s="8" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="I68" s="1" t="s">
         <v>231</v>
       </c>
+      <c r="I68" s="7"/>
       <c r="J68" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O68" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P68" s="1" t="n">
         <v>0.26</v>
-      </c>
-      <c r="P68" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="Q68" s="8" t="s">
         <v>223</v>
       </c>
+      <c r="R68" s="8" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="I69" s="1" t="s">
         <v>233</v>
       </c>
+      <c r="I69" s="7"/>
       <c r="J69" s="1" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O69" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P69" s="1" t="n">
         <v>0.48</v>
-      </c>
-      <c r="P69" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="Q69" s="8" t="s">
         <v>223</v>
       </c>
+      <c r="R69" s="8" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="I70" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="I70" s="7"/>
       <c r="J70" s="1" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O70" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P70" s="1" t="n">
         <v>0.35</v>
-      </c>
-      <c r="P70" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="Q70" s="8" t="s">
         <v>223</v>
       </c>
+      <c r="R70" s="8" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="I71" s="1" t="s">
         <v>237</v>
       </c>
+      <c r="I71" s="7"/>
       <c r="J71" s="1" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O71" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P71" s="1" t="n">
         <v>0.48</v>
-      </c>
-      <c r="P71" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="Q71" s="8" t="s">
         <v>223</v>
       </c>
+      <c r="R71" s="8" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="I72" s="1" t="s">
         <v>239</v>
       </c>
+      <c r="I72" s="7"/>
       <c r="J72" s="1" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O72" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P72" s="1" t="n">
         <v>0.24</v>
-      </c>
-      <c r="P72" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="Q72" s="8" t="s">
         <v>223</v>
       </c>
+      <c r="R72" s="8" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="I73" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="I73" s="7"/>
       <c r="J73" s="1" t="s">
         <v>242</v>
       </c>
@@ -5024,28 +5099,29 @@
         <v>245</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O73" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P73" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="P73" s="8" t="s">
-        <v>246</v>
+      <c r="Q73" s="8" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="I74" s="1" t="s">
         <v>248</v>
       </c>
+      <c r="I74" s="7"/>
       <c r="J74" s="1" t="s">
         <v>249</v>
       </c>
@@ -5059,31 +5135,32 @@
         <v>252</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O74" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P74" s="1" t="n">
         <v>288</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q74" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="R74" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="I75" s="1" t="s">
         <v>256</v>
       </c>
+      <c r="I75" s="7"/>
       <c r="J75" s="1" t="s">
         <v>257</v>
       </c>
@@ -5094,36 +5171,37 @@
         <v>259</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O75" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P75" s="1" t="n">
         <v>288</v>
-      </c>
-      <c r="P75" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q75" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="R75" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="I76" s="1" t="s">
         <v>261</v>
       </c>
+      <c r="I76" s="7"/>
       <c r="J76" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>258</v>
@@ -5132,36 +5210,37 @@
         <v>259</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O76" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P76" s="1" t="n">
         <v>287</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q76" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="R76" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="I77" s="1" t="s">
         <v>263</v>
       </c>
+      <c r="I77" s="7"/>
       <c r="J77" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>258</v>
@@ -5170,36 +5249,37 @@
         <v>259</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O77" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P77" s="1" t="n">
         <v>287</v>
-      </c>
-      <c r="P77" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q77" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="R77" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="I78" s="1" t="s">
         <v>265</v>
       </c>
+      <c r="I78" s="7"/>
       <c r="J78" s="1" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>258</v>
@@ -5208,36 +5288,37 @@
         <v>259</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O78" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P78" s="1" t="n">
         <v>288</v>
-      </c>
-      <c r="P78" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q78" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="R78" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="I79" s="1" t="s">
         <v>267</v>
       </c>
+      <c r="I79" s="7"/>
       <c r="J79" s="1" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>258</v>
@@ -5246,36 +5327,37 @@
         <v>259</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O79" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P79" s="1" t="n">
         <v>285</v>
-      </c>
-      <c r="P79" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q79" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="R79" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="I80" s="1" t="s">
         <v>269</v>
       </c>
+      <c r="I80" s="7"/>
       <c r="J80" s="1" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>258</v>
@@ -5284,36 +5366,37 @@
         <v>259</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O80" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P80" s="1" t="n">
         <v>272</v>
-      </c>
-      <c r="P80" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q80" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="R80" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="I81" s="1" t="s">
         <v>271</v>
       </c>
+      <c r="I81" s="7"/>
       <c r="J81" s="1" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>258</v>
@@ -5322,36 +5405,37 @@
         <v>259</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O81" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P81" s="1" t="n">
         <v>288</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q81" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="R81" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="I82" s="1" t="s">
         <v>273</v>
       </c>
+      <c r="I82" s="7"/>
       <c r="J82" s="1" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>258</v>
@@ -5360,36 +5444,37 @@
         <v>259</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O82" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P82" s="1" t="n">
         <v>287</v>
-      </c>
-      <c r="P82" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q82" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="R82" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="I83" s="1" t="s">
         <v>275</v>
       </c>
+      <c r="I83" s="7"/>
       <c r="J83" s="1" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>258</v>
@@ -5398,36 +5483,37 @@
         <v>259</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O83" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P83" s="1" t="n">
         <v>287</v>
-      </c>
-      <c r="P83" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q83" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="R83" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="I84" s="1" t="s">
         <v>277</v>
       </c>
+      <c r="I84" s="7"/>
       <c r="J84" s="1" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>258</v>
@@ -5436,36 +5522,37 @@
         <v>259</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O84" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P84" s="1" t="n">
         <v>0.42</v>
-      </c>
-      <c r="P84" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q84" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="R84" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="I85" s="1" t="s">
         <v>279</v>
       </c>
+      <c r="I85" s="7"/>
       <c r="J85" s="1" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>258</v>
@@ -5474,36 +5561,37 @@
         <v>259</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O85" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P85" s="1" t="n">
         <v>1.12569444444444</v>
-      </c>
-      <c r="P85" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q85" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="R85" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="I86" s="1" t="s">
         <v>281</v>
       </c>
+      <c r="I86" s="7"/>
       <c r="J86" s="1" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>258</v>
@@ -5512,36 +5600,37 @@
         <v>259</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O86" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P86" s="1" t="n">
         <v>1.87725694444444</v>
-      </c>
-      <c r="P86" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q86" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="R86" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="I87" s="1" t="s">
         <v>283</v>
       </c>
+      <c r="I87" s="7"/>
       <c r="J87" s="1" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>258</v>
@@ -5550,36 +5639,37 @@
         <v>259</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O87" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P87" s="1" t="n">
         <v>2.6</v>
-      </c>
-      <c r="P87" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q87" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="R87" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="I88" s="1" t="s">
         <v>285</v>
       </c>
+      <c r="I88" s="7"/>
       <c r="J88" s="1" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>258</v>
@@ -5588,36 +5678,37 @@
         <v>259</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O88" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P88" s="1" t="n">
         <v>6.32958333333333</v>
-      </c>
-      <c r="P88" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q88" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="R88" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="I89" s="1" t="s">
         <v>287</v>
       </c>
+      <c r="I89" s="7"/>
       <c r="J89" s="1" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>258</v>
@@ -5626,36 +5717,37 @@
         <v>259</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O89" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P89" s="1" t="n">
         <v>13.7240277777778</v>
-      </c>
-      <c r="P89" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q89" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="R89" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="I90" s="1" t="s">
         <v>289</v>
       </c>
+      <c r="I90" s="7"/>
       <c r="J90" s="1" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>258</v>
@@ -5664,36 +5756,37 @@
         <v>259</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O90" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P90" s="1" t="n">
         <v>1.61</v>
-      </c>
-      <c r="P90" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q90" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="R90" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="I91" s="1" t="s">
         <v>291</v>
       </c>
+      <c r="I91" s="7"/>
       <c r="J91" s="1" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>258</v>
@@ -5702,36 +5795,37 @@
         <v>259</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O91" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P91" s="1" t="n">
         <v>3.80180555555556</v>
-      </c>
-      <c r="P91" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q91" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="R91" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="I92" s="1" t="s">
         <v>293</v>
       </c>
+      <c r="I92" s="7"/>
       <c r="J92" s="1" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="K92" s="1" t="s">
         <v>258</v>
@@ -5740,36 +5834,37 @@
         <v>259</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O92" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P92" s="1" t="n">
         <v>7.40684027777778</v>
-      </c>
-      <c r="P92" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q92" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="R92" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="I93" s="1" t="s">
         <v>295</v>
       </c>
+      <c r="I93" s="7"/>
       <c r="J93" s="1" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>258</v>
@@ -5778,36 +5873,37 @@
         <v>259</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O93" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P93" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="P93" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q93" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="R93" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="I94" s="1" t="s">
         <v>297</v>
       </c>
+      <c r="I94" s="7"/>
       <c r="J94" s="1" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>258</v>
@@ -5816,36 +5912,37 @@
         <v>259</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O94" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P94" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="P94" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q94" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="R94" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="I95" s="1" t="s">
         <v>299</v>
       </c>
+      <c r="I95" s="7"/>
       <c r="J95" s="1" t="s">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>258</v>
@@ -5854,36 +5951,37 @@
         <v>259</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O95" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P95" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="P95" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q95" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="R95" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="I96" s="1" t="s">
         <v>301</v>
       </c>
+      <c r="I96" s="7"/>
       <c r="J96" s="1" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>258</v>
@@ -5892,36 +5990,37 @@
         <v>259</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O96" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P96" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="P96" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q96" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="R96" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="I97" s="1" t="s">
         <v>303</v>
       </c>
+      <c r="I97" s="7"/>
       <c r="J97" s="1" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="K97" s="1" t="s">
         <v>258</v>
@@ -5930,36 +6029,37 @@
         <v>259</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O97" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P97" s="1" t="n">
         <v>0.99</v>
-      </c>
-      <c r="P97" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q97" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="R97" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="I98" s="1" t="s">
         <v>305</v>
       </c>
+      <c r="I98" s="7"/>
       <c r="J98" s="1" t="s">
-        <v>257</v>
+        <v>306</v>
       </c>
       <c r="K98" s="1" t="s">
         <v>258</v>
@@ -5968,36 +6068,37 @@
         <v>259</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O98" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P98" s="1" t="n">
         <v>0.94</v>
-      </c>
-      <c r="P98" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q98" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="R98" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="I99" s="1" t="s">
         <v>307</v>
       </c>
+      <c r="I99" s="7"/>
       <c r="J99" s="1" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>258</v>
@@ -6006,36 +6107,37 @@
         <v>259</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O99" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P99" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="P99" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q99" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="R99" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="I100" s="1" t="s">
         <v>309</v>
       </c>
+      <c r="I100" s="7"/>
       <c r="J100" s="1" t="s">
-        <v>257</v>
+        <v>310</v>
       </c>
       <c r="K100" s="1" t="s">
         <v>258</v>
@@ -6044,36 +6146,37 @@
         <v>259</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O100" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P100" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="P100" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q100" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="R100" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="I101" s="1" t="s">
         <v>311</v>
       </c>
+      <c r="I101" s="7"/>
       <c r="J101" s="1" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>258</v>
@@ -6082,39 +6185,40 @@
         <v>259</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O101" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P101" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="P101" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="Q101" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="R101" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="I102" s="1" t="s">
         <v>313</v>
       </c>
+      <c r="I102" s="7"/>
       <c r="J102" s="1" t="s">
-        <v>249</v>
+        <v>314</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>315</v>
@@ -6123,36 +6227,37 @@
         <v>316</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O102" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P102" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="P102" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q102" s="1" t="s">
+      <c r="Q102" s="8" t="s">
         <v>318</v>
+      </c>
+      <c r="R102" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="I103" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="I103" s="7"/>
       <c r="J103" s="1" t="s">
-        <v>249</v>
+        <v>321</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="L103" s="1" t="s">
         <v>315</v>
@@ -6161,36 +6266,37 @@
         <v>316</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O103" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P103" s="1" t="n">
         <v>1.39</v>
       </c>
-      <c r="P103" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q103" s="1" t="s">
+      <c r="Q103" s="8" t="s">
         <v>318</v>
+      </c>
+      <c r="R103" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="I104" s="1" t="s">
         <v>322</v>
       </c>
+      <c r="I104" s="7"/>
       <c r="J104" s="1" t="s">
-        <v>249</v>
+        <v>323</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>315</v>
@@ -6199,31 +6305,32 @@
         <v>316</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O104" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P104" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P104" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q104" s="1" t="s">
+      <c r="Q104" s="8" t="s">
         <v>318</v>
+      </c>
+      <c r="R104" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="I105" s="1" t="s">
         <v>324</v>
       </c>
+      <c r="I105" s="7"/>
       <c r="J105" s="1" t="s">
         <v>325</v>
       </c>
@@ -6231,113 +6338,116 @@
         <v>326</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M105" s="1" t="s">
         <v>327</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O105" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P105" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="P105" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="Q105" s="1" t="s">
-        <v>318</v>
+        <v>329</v>
+      </c>
+      <c r="R105" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="I106" s="1" t="s">
         <v>330</v>
       </c>
+      <c r="I106" s="7"/>
       <c r="J106" s="1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K106" s="1" t="s">
         <v>326</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M106" s="1" t="s">
         <v>327</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O106" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P106" s="1" t="n">
         <v>2.89</v>
       </c>
-      <c r="P106" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="Q106" s="1" t="s">
-        <v>318</v>
+        <v>329</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="I107" s="1" t="s">
         <v>332</v>
       </c>
+      <c r="I107" s="7"/>
       <c r="J107" s="1" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="K107" s="1" t="s">
         <v>326</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M107" s="1" t="s">
         <v>327</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O107" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P107" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P107" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="Q107" s="1" t="s">
-        <v>318</v>
+        <v>329</v>
+      </c>
+      <c r="R107" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="I108" s="1" t="s">
         <v>334</v>
       </c>
+      <c r="I108" s="7"/>
       <c r="J108" s="1" t="s">
         <v>335</v>
       </c>
@@ -6345,113 +6455,116 @@
         <v>336</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M108" s="1" t="s">
         <v>337</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O108" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P108" s="1" t="n">
         <v>288</v>
-      </c>
-      <c r="P108" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="Q108" s="1" t="s">
         <v>339</v>
       </c>
+      <c r="R108" s="1" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="I109" s="1" t="s">
         <v>341</v>
       </c>
+      <c r="I109" s="7"/>
       <c r="J109" s="1" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="K109" s="1" t="s">
         <v>336</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M109" s="1" t="s">
         <v>337</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O109" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P109" s="1" t="n">
         <v>0.37</v>
-      </c>
-      <c r="P109" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="Q109" s="1" t="s">
         <v>339</v>
       </c>
+      <c r="R109" s="1" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="I110" s="1" t="s">
         <v>343</v>
       </c>
+      <c r="I110" s="7"/>
       <c r="J110" s="1" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="K110" s="1" t="s">
         <v>336</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>337</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O110" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P110" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="P110" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="Q110" s="1" t="s">
         <v>339</v>
       </c>
+      <c r="R110" s="1" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="I111" s="1" t="s">
         <v>345</v>
       </c>
+      <c r="I111" s="7"/>
       <c r="J111" s="1" t="s">
         <v>346</v>
       </c>
@@ -6465,33 +6578,34 @@
         <v>349</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O111" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P111" s="1" t="n">
         <v>288</v>
-      </c>
-      <c r="P111" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="Q111" s="1" t="s">
         <v>351</v>
       </c>
+      <c r="R111" s="1" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="I112" s="1" t="s">
         <v>353</v>
       </c>
+      <c r="I112" s="7"/>
       <c r="J112" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="K112" s="1" t="s">
         <v>347</v>
@@ -6503,33 +6617,34 @@
         <v>349</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O112" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P112" s="1" t="n">
         <v>1.49</v>
-      </c>
-      <c r="P112" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="Q112" s="1" t="s">
         <v>351</v>
       </c>
+      <c r="R112" s="1" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="I113" s="1" t="s">
         <v>355</v>
       </c>
+      <c r="I113" s="7"/>
       <c r="J113" s="1" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="K113" s="1" t="s">
         <v>347</v>
@@ -6541,145 +6656,149 @@
         <v>349</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O113" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P113" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="P113" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="Q113" s="1" t="s">
         <v>351</v>
       </c>
+      <c r="R113" s="1" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="I114" s="1" t="s">
         <v>357</v>
       </c>
+      <c r="I114" s="7"/>
       <c r="J114" s="1" t="s">
         <v>358</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>348</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O114" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P114" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="P114" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q114" s="1" t="s">
+      <c r="Q114" s="8" t="s">
         <v>318</v>
+      </c>
+      <c r="R114" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="I115" s="1" t="s">
         <v>361</v>
       </c>
+      <c r="I115" s="7"/>
       <c r="J115" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>348</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O115" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P115" s="1" t="n">
         <v>1.49</v>
       </c>
-      <c r="P115" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q115" s="1" t="s">
+      <c r="Q115" s="8" t="s">
         <v>318</v>
+      </c>
+      <c r="R115" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="I116" s="1" t="s">
         <v>363</v>
       </c>
+      <c r="I116" s="7"/>
       <c r="J116" s="1" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="L116" s="1" t="s">
         <v>348</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O116" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P116" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P116" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q116" s="1" t="s">
+      <c r="Q116" s="8" t="s">
         <v>318</v>
+      </c>
+      <c r="R116" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="I117" s="1" t="s">
         <v>365</v>
       </c>
+      <c r="I117" s="7"/>
       <c r="J117" s="1" t="s">
         <v>366</v>
       </c>
@@ -6693,33 +6812,34 @@
         <v>369</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O117" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P117" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="P117" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q117" s="1" t="s">
+      <c r="Q117" s="8" t="s">
         <v>318</v>
+      </c>
+      <c r="R117" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="I118" s="1" t="s">
         <v>371</v>
       </c>
+      <c r="I118" s="7"/>
       <c r="J118" s="1" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="K118" s="1" t="s">
         <v>367</v>
@@ -6731,33 +6851,34 @@
         <v>369</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O118" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P118" s="1" t="n">
         <v>2.7</v>
       </c>
-      <c r="P118" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q118" s="1" t="s">
+      <c r="Q118" s="8" t="s">
         <v>318</v>
+      </c>
+      <c r="R118" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="I119" s="1" t="s">
         <v>373</v>
       </c>
+      <c r="I119" s="7"/>
       <c r="J119" s="1" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="K119" s="1" t="s">
         <v>367</v>
@@ -6769,35 +6890,36 @@
         <v>369</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O119" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P119" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P119" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q119" s="1" t="s">
+      <c r="Q119" s="8" t="s">
         <v>318</v>
+      </c>
+      <c r="R119" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="I120" s="1" t="s">
         <v>376</v>
       </c>
+      <c r="I120" s="7"/>
       <c r="J120" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="K120" s="7" t="s">
+      <c r="K120" s="1" t="s">
         <v>378</v>
       </c>
       <c r="L120" s="7" t="s">
@@ -6807,35 +6929,36 @@
         <v>380</v>
       </c>
       <c r="N120" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O120" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="O120" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P120" s="1" t="n">
         <v>1908</v>
-      </c>
-      <c r="P120" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="Q120" s="1" t="s">
         <v>382</v>
       </c>
+      <c r="R120" s="1" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="I121" s="1" t="s">
         <v>384</v>
       </c>
+      <c r="I121" s="7"/>
       <c r="J121" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="K121" s="7" t="s">
+      <c r="K121" s="1" t="s">
         <v>386</v>
       </c>
       <c r="L121" s="7" t="s">
@@ -6845,32 +6968,33 @@
         <v>388</v>
       </c>
       <c r="N121" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O121" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="O121" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P121" s="1" t="n">
         <v>2546</v>
       </c>
-      <c r="P121" s="1" t="s">
-        <v>389</v>
+      <c r="Q121" s="1" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="I122" s="1" t="s">
         <v>391</v>
       </c>
+      <c r="I122" s="7"/>
       <c r="J122" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="K122" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K122" s="1" t="s">
         <v>386</v>
       </c>
       <c r="L122" s="7" t="s">
@@ -6880,384 +7004,393 @@
         <v>388</v>
       </c>
       <c r="N122" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O122" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="O122" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P122" s="1" t="n">
         <v>8874</v>
       </c>
-      <c r="P122" s="1" t="s">
-        <v>389</v>
+      <c r="Q122" s="1" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="I123" s="1" t="s">
         <v>393</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="K123" s="7" t="s">
         <v>394</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="L123" s="7" t="s">
         <v>395</v>
       </c>
       <c r="M123" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="N123" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O123" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="O123" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P123" s="1" t="n">
         <v>155.96</v>
       </c>
-      <c r="P123" s="1" t="s">
-        <v>389</v>
+      <c r="Q123" s="1" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="I124" s="1" t="s">
         <v>397</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="K124" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="L124" s="7" t="s">
         <v>395</v>
       </c>
       <c r="M124" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="N124" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O124" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="O124" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P124" s="1" t="n">
         <v>543.59</v>
       </c>
-      <c r="P124" s="1" t="s">
-        <v>389</v>
+      <c r="Q124" s="1" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="I125" s="1" t="s">
         <v>399</v>
       </c>
+      <c r="I125" s="7"/>
       <c r="J125" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="K125" s="7" t="s">
+      <c r="K125" s="1" t="s">
         <v>401</v>
       </c>
       <c r="L125" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M125" s="7" t="s">
         <v>402</v>
       </c>
       <c r="N125" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O125" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="O125" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P125" s="1" t="n">
         <v>56.3</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="I126" s="1" t="s">
         <v>404</v>
       </c>
+      <c r="I126" s="7"/>
       <c r="J126" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="K126" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K126" s="1" t="s">
         <v>401</v>
       </c>
       <c r="L126" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M126" s="7" t="s">
         <v>402</v>
       </c>
       <c r="N126" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O126" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="O126" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P126" s="1" t="n">
         <v>10.5</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="I127" s="1" t="s">
         <v>406</v>
       </c>
+      <c r="I127" s="7"/>
       <c r="J127" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="K127" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K127" s="1" t="s">
         <v>401</v>
       </c>
       <c r="L127" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M127" s="7" t="s">
         <v>402</v>
       </c>
       <c r="N127" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O127" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="O127" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P127" s="1" t="n">
         <v>10.6</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="I128" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="I128" s="7"/>
       <c r="J128" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="K128" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K128" s="1" t="s">
         <v>401</v>
       </c>
       <c r="L128" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M128" s="7" t="s">
         <v>402</v>
       </c>
       <c r="N128" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O128" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="O128" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P128" s="1" t="n">
         <v>16.3</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="I129" s="1" t="s">
         <v>410</v>
       </c>
+      <c r="I129" s="7"/>
       <c r="J129" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="K129" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K129" s="1" t="s">
         <v>401</v>
       </c>
       <c r="L129" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M129" s="7" t="s">
         <v>402</v>
       </c>
       <c r="N129" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O129" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="O129" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P129" s="1" t="n">
         <v>15.7</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="I130" s="1" t="s">
         <v>412</v>
       </c>
+      <c r="I130" s="7"/>
       <c r="J130" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="K130" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K130" s="1" t="s">
         <v>401</v>
       </c>
       <c r="L130" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M130" s="7" t="s">
         <v>402</v>
       </c>
       <c r="N130" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O130" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="O130" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P130" s="1" t="n">
         <v>17.1</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="I131" s="1" t="s">
         <v>414</v>
       </c>
+      <c r="I131" s="7"/>
       <c r="J131" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="K131" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K131" s="1" t="s">
         <v>401</v>
       </c>
       <c r="L131" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M131" s="7" t="s">
         <v>402</v>
       </c>
       <c r="N131" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O131" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="O131" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P131" s="1" t="n">
         <v>19.8</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="I132" s="1" t="s">
         <v>416</v>
       </c>
+      <c r="I132" s="7"/>
       <c r="J132" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="K132" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K132" s="1" t="s">
         <v>401</v>
       </c>
       <c r="L132" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M132" s="7" t="s">
         <v>402</v>
       </c>
       <c r="N132" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O132" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="O132" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P132" s="1" t="n">
         <v>24.5</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="I133" s="1" t="s">
         <v>418</v>
       </c>
+      <c r="I133" s="7"/>
       <c r="J133" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="K133" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K133" s="1" t="s">
         <v>401</v>
       </c>
       <c r="L133" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M133" s="7" t="s">
         <v>402</v>
       </c>
       <c r="N133" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O133" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="O133" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P133" s="1" t="n">
         <v>24.5</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="I134" s="1" t="s">
         <v>420</v>
       </c>
       <c r="J134" s="1" t="s">
@@ -7272,31 +7405,31 @@
       <c r="M134" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="N134" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O134" s="1" t="n">
+      <c r="N134" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="O134" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P134" s="1" t="n">
         <v>0.99</v>
       </c>
-      <c r="Q134" s="1" t="s">
-        <v>425</v>
+      <c r="R134" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="I135" s="1" t="s">
         <v>427</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="K135" s="1" t="s">
         <v>422</v>
@@ -7307,31 +7440,31 @@
       <c r="M135" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="N135" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O135" s="1" t="n">
+      <c r="N135" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="O135" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P135" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q135" s="1" t="s">
-        <v>425</v>
+      <c r="R135" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="I136" s="1" t="s">
         <v>429</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="K136" s="1" t="s">
         <v>422</v>
@@ -7342,31 +7475,31 @@
       <c r="M136" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="N136" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O136" s="1" t="n">
+      <c r="N136" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="O136" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P136" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q136" s="1" t="s">
-        <v>425</v>
+      <c r="R136" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="I137" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="J137" s="1" t="s">
-        <v>421</v>
+      <c r="J137" s="8" t="s">
+        <v>432</v>
       </c>
       <c r="K137" s="1" t="s">
         <v>422</v>
@@ -7378,30 +7511,30 @@
         <v>424</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>18</v>
+        <v>425</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q137" s="1" t="s">
-        <v>425</v>
+        <v>19</v>
+      </c>
+      <c r="P137" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="R137" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="I138" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="J138" s="1" t="s">
-        <v>421</v>
+      <c r="J138" s="11" t="s">
+        <v>435</v>
       </c>
       <c r="K138" s="1" t="s">
         <v>422</v>
@@ -7413,30 +7546,30 @@
         <v>424</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O138" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P138" s="1" t="n">
         <v>1585873</v>
       </c>
-      <c r="Q138" s="1" t="s">
-        <v>425</v>
+      <c r="R138" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I139" s="1" t="s">
         <v>436</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="K139" s="1" t="s">
         <v>422</v>
@@ -7448,30 +7581,30 @@
         <v>424</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O139" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="O139" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P139" s="1" t="n">
         <v>1585873</v>
       </c>
-      <c r="Q139" s="1" t="s">
-        <v>425</v>
+      <c r="R139" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="I140" s="1" t="s">
         <v>438</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="K140" s="1" t="s">
         <v>422</v>
@@ -7483,30 +7616,30 @@
         <v>424</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O140" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="O140" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P140" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q140" s="1" t="s">
-        <v>425</v>
+      <c r="R140" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="I141" s="1" t="s">
         <v>440</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="K141" s="1" t="s">
         <v>422</v>
@@ -7518,26 +7651,26 @@
         <v>424</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O141" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="O141" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P141" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q141" s="1" t="s">
-        <v>425</v>
+      <c r="R141" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="I142" s="1" t="s">
         <v>442</v>
       </c>
       <c r="J142" s="1" t="s">
@@ -7555,92 +7688,92 @@
       <c r="N142" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="O142" s="1" t="n">
+      <c r="O142" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="P142" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="I143" s="1" t="s">
         <v>449</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="L143" s="1" t="s">
         <v>451</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="N143" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="O143" s="1" t="n">
+      <c r="O143" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="P143" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q143" s="1" t="s">
-        <v>452</v>
+      <c r="R143" s="1" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="I144" s="1" t="s">
         <v>454</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="L144" s="1" t="s">
         <v>456</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O144" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="O144" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P144" s="1" t="n">
         <v>0.42</v>
       </c>
-      <c r="P144" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q144" s="12"/>
+      <c r="Q144" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="R144" s="12"/>
     </row>
     <row r="145" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="I145" s="1" t="s">
         <v>459</v>
       </c>
       <c r="J145" s="1" t="s">
@@ -7656,33 +7789,33 @@
         <v>463</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O145" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="O145" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P145" s="1" t="n">
         <v>0.42</v>
-      </c>
-      <c r="P145" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="Q145" s="1" t="s">
         <v>465</v>
       </c>
+      <c r="R145" s="1" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="I146" s="1" t="s">
         <v>467</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="K146" s="1" t="s">
         <v>461</v>
@@ -7694,33 +7827,33 @@
         <v>463</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O146" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="O146" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P146" s="1" t="n">
         <v>0.01</v>
-      </c>
-      <c r="P146" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="Q146" s="1" t="s">
         <v>465</v>
       </c>
+      <c r="R146" s="1" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="I147" s="1" t="s">
         <v>469</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="K147" s="1" t="s">
         <v>461</v>
@@ -7732,33 +7865,33 @@
         <v>463</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O147" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="O147" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P147" s="1" t="n">
         <v>0.96</v>
-      </c>
-      <c r="P147" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="Q147" s="1" t="s">
         <v>465</v>
       </c>
+      <c r="R147" s="1" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="I148" s="1" t="s">
         <v>471</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="K148" s="1" t="s">
         <v>461</v>
@@ -7770,33 +7903,33 @@
         <v>463</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O148" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="O148" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P148" s="1" t="n">
         <v>0.97</v>
-      </c>
-      <c r="P148" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="Q148" s="1" t="s">
         <v>465</v>
       </c>
+      <c r="R148" s="1" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="I149" s="1" t="s">
         <v>473</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="K149" s="1" t="s">
         <v>461</v>
@@ -7808,29 +7941,29 @@
         <v>463</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O149" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="O149" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P149" s="1" t="n">
         <v>0.55</v>
-      </c>
-      <c r="P149" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="Q149" s="1" t="s">
         <v>465</v>
       </c>
+      <c r="R149" s="1" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="I150" s="1" t="s">
         <v>476</v>
       </c>
       <c r="J150" s="1" t="s">
@@ -7846,33 +7979,33 @@
         <v>480</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O150" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O150" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P150" s="1" t="n">
         <v>373.6</v>
-      </c>
-      <c r="P150" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q150" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R150" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="I151" s="1" t="s">
         <v>484</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="K151" s="1" t="s">
         <v>478</v>
@@ -7884,33 +8017,33 @@
         <v>480</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O151" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O151" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P151" s="1" t="n">
         <v>21.24</v>
-      </c>
-      <c r="P151" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q151" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R151" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="I152" s="1" t="s">
         <v>486</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="K152" s="1" t="s">
         <v>478</v>
@@ -7922,33 +8055,33 @@
         <v>480</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O152" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O152" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P152" s="1" t="n">
         <v>752.06</v>
-      </c>
-      <c r="P152" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q152" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R152" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="I153" s="1" t="s">
         <v>488</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="K153" s="1" t="s">
         <v>478</v>
@@ -7960,33 +8093,33 @@
         <v>480</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O153" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O153" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P153" s="1" t="n">
         <v>18.42</v>
-      </c>
-      <c r="P153" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q153" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R153" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="I154" s="1" t="s">
         <v>490</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="K154" s="1" t="s">
         <v>478</v>
@@ -7998,33 +8131,33 @@
         <v>480</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O154" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O154" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P154" s="1" t="n">
         <v>895.68</v>
-      </c>
-      <c r="P154" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q154" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R154" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="I155" s="1" t="s">
         <v>492</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="K155" s="1" t="s">
         <v>478</v>
@@ -8036,33 +8169,33 @@
         <v>480</v>
       </c>
       <c r="N155" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O155" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O155" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P155" s="1" t="n">
         <v>438.21</v>
-      </c>
-      <c r="P155" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q155" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R155" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="I156" s="1" t="s">
         <v>494</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="K156" s="1" t="s">
         <v>478</v>
@@ -8074,33 +8207,33 @@
         <v>480</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O156" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O156" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P156" s="1" t="n">
         <v>549.45</v>
-      </c>
-      <c r="P156" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q156" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R156" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="I157" s="1" t="s">
         <v>496</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="K157" s="1" t="s">
         <v>478</v>
@@ -8112,33 +8245,33 @@
         <v>480</v>
       </c>
       <c r="N157" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O157" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O157" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P157" s="1" t="n">
         <v>83.14</v>
-      </c>
-      <c r="P157" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q157" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R157" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="I158" s="1" t="s">
         <v>498</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="K158" s="1" t="s">
         <v>478</v>
@@ -8150,33 +8283,33 @@
         <v>480</v>
       </c>
       <c r="N158" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O158" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O158" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P158" s="1" t="n">
         <v>140.33</v>
-      </c>
-      <c r="P158" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q158" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R158" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="I159" s="1" t="s">
         <v>500</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="K159" s="1" t="s">
         <v>478</v>
@@ -8188,33 +8321,33 @@
         <v>480</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O159" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O159" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P159" s="1" t="n">
         <v>11.25</v>
-      </c>
-      <c r="P159" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q159" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R159" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="I160" s="1" t="s">
         <v>502</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="K160" s="1" t="s">
         <v>478</v>
@@ -8226,33 +8359,33 @@
         <v>480</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O160" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P160" s="1" t="n">
         <v>278.96</v>
-      </c>
-      <c r="P160" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q160" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R160" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="I161" s="1" t="s">
         <v>504</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
       <c r="K161" s="1" t="s">
         <v>478</v>
@@ -8264,33 +8397,33 @@
         <v>480</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O161" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P161" s="1" t="n">
         <v>4.11</v>
-      </c>
-      <c r="P161" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q161" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R161" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="I162" s="1" t="s">
         <v>506</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="K162" s="1" t="s">
         <v>478</v>
@@ -8302,33 +8435,33 @@
         <v>480</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O162" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O162" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P162" s="1" t="n">
         <v>320.86</v>
-      </c>
-      <c r="P162" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q162" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R162" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="I163" s="1" t="s">
         <v>508</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>477</v>
+        <v>509</v>
       </c>
       <c r="K163" s="1" t="s">
         <v>478</v>
@@ -8340,33 +8473,33 @@
         <v>480</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O163" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O163" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P163" s="1" t="n">
         <v>174.65</v>
-      </c>
-      <c r="P163" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q163" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R163" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="I164" s="1" t="s">
         <v>510</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
       <c r="K164" s="1" t="s">
         <v>478</v>
@@ -8378,33 +8511,33 @@
         <v>480</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O164" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O164" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P164" s="1" t="n">
         <v>290.89</v>
-      </c>
-      <c r="P164" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q164" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R164" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="I165" s="1" t="s">
         <v>512</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>477</v>
+        <v>513</v>
       </c>
       <c r="K165" s="1" t="s">
         <v>478</v>
@@ -8416,33 +8549,33 @@
         <v>480</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O165" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O165" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P165" s="1" t="n">
         <v>30.33</v>
-      </c>
-      <c r="P165" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q165" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R165" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I166" s="1" t="s">
         <v>514</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>477</v>
+        <v>515</v>
       </c>
       <c r="K166" s="1" t="s">
         <v>478</v>
@@ -8454,33 +8587,33 @@
         <v>480</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O166" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O166" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P166" s="1" t="n">
         <v>21605</v>
-      </c>
-      <c r="P166" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q166" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R166" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="I167" s="1" t="s">
         <v>516</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>477</v>
+        <v>517</v>
       </c>
       <c r="K167" s="1" t="s">
         <v>478</v>
@@ -8492,33 +8625,33 @@
         <v>480</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O167" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O167" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P167" s="1" t="n">
         <v>636</v>
-      </c>
-      <c r="P167" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q167" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R167" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="I168" s="1" t="s">
         <v>518</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>477</v>
+        <v>519</v>
       </c>
       <c r="K168" s="1" t="s">
         <v>478</v>
@@ -8530,33 +8663,33 @@
         <v>480</v>
       </c>
       <c r="N168" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O168" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O168" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P168" s="1" t="n">
         <v>20969</v>
-      </c>
-      <c r="P168" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q168" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R168" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="I169" s="1" t="s">
         <v>520</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>477</v>
+        <v>521</v>
       </c>
       <c r="K169" s="1" t="s">
         <v>478</v>
@@ -8568,33 +8701,33 @@
         <v>480</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O169" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O169" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P169" s="1" t="n">
         <v>166</v>
-      </c>
-      <c r="P169" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q169" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R169" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="I170" s="1" t="s">
         <v>522</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>477</v>
+        <v>523</v>
       </c>
       <c r="K170" s="1" t="s">
         <v>478</v>
@@ -8606,33 +8739,33 @@
         <v>480</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O170" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O170" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P170" s="1" t="n">
         <v>11861</v>
-      </c>
-      <c r="P170" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q170" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R170" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="I171" s="1" t="s">
         <v>524</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>477</v>
+        <v>525</v>
       </c>
       <c r="K171" s="1" t="s">
         <v>478</v>
@@ -8644,33 +8777,33 @@
         <v>480</v>
       </c>
       <c r="N171" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O171" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O171" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P171" s="1" t="n">
         <v>7359</v>
-      </c>
-      <c r="P171" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q171" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R171" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="I172" s="1" t="s">
         <v>526</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>477</v>
+        <v>527</v>
       </c>
       <c r="K172" s="1" t="s">
         <v>478</v>
@@ -8682,33 +8815,33 @@
         <v>480</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O172" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O172" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P172" s="1" t="n">
         <v>102</v>
-      </c>
-      <c r="P172" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q172" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R172" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="I173" s="1" t="s">
         <v>528</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="K173" s="1" t="s">
         <v>478</v>
@@ -8720,33 +8853,33 @@
         <v>480</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O173" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O173" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P173" s="1" t="n">
         <v>1546</v>
-      </c>
-      <c r="P173" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q173" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R173" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="I174" s="1" t="s">
         <v>530</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="K174" s="1" t="s">
         <v>478</v>
@@ -8758,33 +8891,33 @@
         <v>480</v>
       </c>
       <c r="N174" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O174" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O174" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P174" s="1" t="n">
         <v>8115</v>
-      </c>
-      <c r="P174" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q174" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R174" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="I175" s="1" t="s">
         <v>532</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="K175" s="1" t="s">
         <v>478</v>
@@ -8796,33 +8929,33 @@
         <v>480</v>
       </c>
       <c r="N175" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O175" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O175" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P175" s="1" t="n">
         <v>337</v>
-      </c>
-      <c r="P175" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q175" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R175" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="I176" s="1" t="s">
         <v>534</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="K176" s="1" t="s">
         <v>478</v>
@@ -8834,33 +8967,33 @@
         <v>480</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O176" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O176" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P176" s="1" t="n">
         <v>7778</v>
-      </c>
-      <c r="P176" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q176" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R176" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="I177" s="1" t="s">
         <v>536</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
       <c r="K177" s="1" t="s">
         <v>478</v>
@@ -8872,33 +9005,33 @@
         <v>480</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O177" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O177" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P177" s="1" t="n">
         <v>37</v>
-      </c>
-      <c r="P177" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q177" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R177" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="I178" s="1" t="s">
         <v>538</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>477</v>
+        <v>539</v>
       </c>
       <c r="K178" s="1" t="s">
         <v>478</v>
@@ -8910,33 +9043,33 @@
         <v>480</v>
       </c>
       <c r="N178" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O178" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O178" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P178" s="1" t="n">
         <v>4249</v>
-      </c>
-      <c r="P178" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q178" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R178" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="I179" s="1" t="s">
         <v>540</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>477</v>
+        <v>541</v>
       </c>
       <c r="K179" s="1" t="s">
         <v>478</v>
@@ -8948,33 +9081,33 @@
         <v>480</v>
       </c>
       <c r="N179" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O179" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O179" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P179" s="1" t="n">
         <v>2933</v>
-      </c>
-      <c r="P179" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q179" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R179" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="I180" s="1" t="s">
         <v>542</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>477</v>
+        <v>543</v>
       </c>
       <c r="K180" s="1" t="s">
         <v>478</v>
@@ -8986,33 +9119,33 @@
         <v>480</v>
       </c>
       <c r="N180" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O180" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O180" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P180" s="1" t="n">
         <v>54</v>
-      </c>
-      <c r="P180" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q180" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R180" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="I181" s="1" t="s">
         <v>544</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>477</v>
+        <v>545</v>
       </c>
       <c r="K181" s="1" t="s">
         <v>478</v>
@@ -9024,29 +9157,29 @@
         <v>480</v>
       </c>
       <c r="N181" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O181" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="O181" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P181" s="1" t="n">
         <v>564</v>
-      </c>
-      <c r="P181" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q181" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R181" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="I182" s="1" t="s">
         <v>546</v>
       </c>
       <c r="J182" s="1" t="s">
@@ -9062,33 +9195,33 @@
         <v>550</v>
       </c>
       <c r="N182" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O182" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="O182" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P182" s="1" t="n">
         <v>230.32</v>
-      </c>
-      <c r="P182" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q182" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R182" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="I183" s="1" t="s">
         <v>552</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="K183" s="1" t="s">
         <v>548</v>
@@ -9100,33 +9233,33 @@
         <v>550</v>
       </c>
       <c r="N183" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O183" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="O183" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P183" s="1" t="n">
         <v>29.02</v>
-      </c>
-      <c r="P183" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q183" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R183" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="I184" s="1" t="s">
         <v>554</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="K184" s="1" t="s">
         <v>548</v>
@@ -9138,33 +9271,33 @@
         <v>550</v>
       </c>
       <c r="N184" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O184" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="O184" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P184" s="1" t="n">
         <v>439.39</v>
-      </c>
-      <c r="P184" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q184" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R184" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="I185" s="1" t="s">
         <v>556</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="K185" s="1" t="s">
         <v>548</v>
@@ -9176,33 +9309,33 @@
         <v>550</v>
       </c>
       <c r="N185" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O185" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="O185" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P185" s="1" t="n">
         <v>47.69</v>
-      </c>
-      <c r="P185" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q185" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R185" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="I186" s="1" t="s">
         <v>558</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="K186" s="1" t="s">
         <v>548</v>
@@ -9214,33 +9347,33 @@
         <v>550</v>
       </c>
       <c r="N186" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O186" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="O186" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P186" s="1" t="n">
         <v>491.34</v>
-      </c>
-      <c r="P186" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q186" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R186" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="I187" s="1" t="s">
         <v>560</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="K187" s="1" t="s">
         <v>548</v>
@@ -9252,33 +9385,33 @@
         <v>550</v>
       </c>
       <c r="N187" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O187" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="O187" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P187" s="1" t="n">
         <v>186.29</v>
-      </c>
-      <c r="P187" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q187" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R187" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="I188" s="1" t="s">
         <v>562</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="K188" s="1" t="s">
         <v>548</v>
@@ -9290,33 +9423,33 @@
         <v>550</v>
       </c>
       <c r="N188" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O188" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="O188" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P188" s="1" t="n">
         <v>108.03</v>
-      </c>
-      <c r="P188" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q188" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R188" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="I189" s="1" t="s">
         <v>564</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="K189" s="1" t="s">
         <v>548</v>
@@ -9328,33 +9461,33 @@
         <v>550</v>
       </c>
       <c r="N189" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O189" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="O189" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P189" s="1" t="n">
         <v>151.84</v>
-      </c>
-      <c r="P189" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q189" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R189" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="I190" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="K190" s="1" t="s">
         <v>548</v>
@@ -9366,33 +9499,33 @@
         <v>550</v>
       </c>
       <c r="N190" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O190" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="O190" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P190" s="1" t="n">
         <v>1260.84</v>
-      </c>
-      <c r="P190" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q190" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R190" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="I191" s="1" t="s">
         <v>568</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="K191" s="1" t="s">
         <v>548</v>
@@ -9404,33 +9537,33 @@
         <v>550</v>
       </c>
       <c r="N191" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O191" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="O191" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P191" s="1" t="n">
         <v>107.3</v>
-      </c>
-      <c r="P191" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q191" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R191" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="I192" s="1" t="s">
         <v>570</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="K192" s="1" t="s">
         <v>548</v>
@@ -9442,33 +9575,33 @@
         <v>550</v>
       </c>
       <c r="N192" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O192" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="O192" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P192" s="1" t="n">
         <v>13201</v>
-      </c>
-      <c r="P192" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q192" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R192" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="I193" s="1" t="s">
         <v>572</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>547</v>
+        <v>573</v>
       </c>
       <c r="K193" s="1" t="s">
         <v>548</v>
@@ -9480,33 +9613,33 @@
         <v>550</v>
       </c>
       <c r="N193" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O193" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="O193" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P193" s="1" t="n">
         <v>861</v>
-      </c>
-      <c r="P193" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q193" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R193" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="I194" s="1" t="s">
         <v>574</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="K194" s="1" t="s">
         <v>548</v>
@@ -9518,33 +9651,33 @@
         <v>550</v>
       </c>
       <c r="N194" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O194" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="O194" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P194" s="1" t="n">
         <v>12149</v>
-      </c>
-      <c r="P194" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q194" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R194" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="I195" s="1" t="s">
         <v>576</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="K195" s="1" t="s">
         <v>548</v>
@@ -9556,33 +9689,33 @@
         <v>550</v>
       </c>
       <c r="N195" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O195" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="O195" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P195" s="1" t="n">
         <v>431.09</v>
-      </c>
-      <c r="P195" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q195" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R195" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="I196" s="1" t="s">
         <v>578</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>547</v>
+        <v>579</v>
       </c>
       <c r="K196" s="1" t="s">
         <v>548</v>
@@ -9594,33 +9727,33 @@
         <v>550</v>
       </c>
       <c r="N196" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O196" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="O196" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P196" s="1" t="n">
         <v>45.67</v>
-      </c>
-      <c r="P196" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q196" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R196" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="I197" s="1" t="s">
         <v>580</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>547</v>
+        <v>581</v>
       </c>
       <c r="K197" s="1" t="s">
         <v>548</v>
@@ -9632,33 +9765,33 @@
         <v>550</v>
       </c>
       <c r="N197" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O197" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="O197" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P197" s="1" t="n">
         <v>3.24</v>
-      </c>
-      <c r="P197" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q197" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R197" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="I198" s="1" t="s">
         <v>582</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>547</v>
+        <v>583</v>
       </c>
       <c r="K198" s="1" t="s">
         <v>548</v>
@@ -9670,33 +9803,33 @@
         <v>550</v>
       </c>
       <c r="N198" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O198" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="O198" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P198" s="1" t="n">
         <v>1.14</v>
-      </c>
-      <c r="P198" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q198" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R198" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="I199" s="1" t="s">
         <v>584</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>547</v>
+        <v>585</v>
       </c>
       <c r="K199" s="1" t="s">
         <v>548</v>
@@ -9708,33 +9841,33 @@
         <v>550</v>
       </c>
       <c r="N199" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O199" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="O199" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P199" s="1" t="n">
         <v>288</v>
-      </c>
-      <c r="P199" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q199" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R199" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="I200" s="1" t="s">
         <v>586</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>547</v>
+        <v>587</v>
       </c>
       <c r="K200" s="1" t="s">
         <v>548</v>
@@ -9746,33 +9879,33 @@
         <v>550</v>
       </c>
       <c r="N200" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O200" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="O200" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P200" s="1" t="n">
         <v>72266</v>
-      </c>
-      <c r="P200" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q200" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="R200" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="I201" s="1" t="s">
         <v>588</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>547</v>
+        <v>589</v>
       </c>
       <c r="K201" s="1" t="s">
         <v>548</v>
@@ -9784,16 +9917,19 @@
         <v>550</v>
       </c>
       <c r="N201" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O201" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="O201" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P201" s="1" t="n">
         <v>6150</v>
-      </c>
-      <c r="P201" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="Q201" s="1" t="s">
         <v>482</v>
+      </c>
+      <c r="R201" s="1" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/data_final/dictionaries/C_Dict.xlsx
+++ b/data_final/dictionaries/C_Dict.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z156"/>
+  <dimension ref="A1:Z155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,73 +557,65 @@
           <t>Geography</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>HEROP_ID</t>
+          <t>TotTracts</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>HEROP_ID</t>
+          <t>Total Census Tract Count</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>A derived unique id corresponding to the relevant geographic unit.</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
+          <t>Total number of census tracts within the state.</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Healthy Regions &amp; Policies Lab, UIUC</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
+          <t>Tiger/Line 2018</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Tiger/Line 2018 Shapefiles</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>050US01001-2018</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr"/>
+          <t>1458</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
+        </is>
+      </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>The HEROP_ID is generated as follows: Summary Level Code + "US" + GEOID + “-” + Year</t>
+          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
       </c>
     </row>
@@ -633,70 +625,63 @@
           <t>Geography</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>GEOID</t>
+          <t>AreaSqMi</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>GEOID</t>
+          <t>Land Area (Square Miles)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Unique identifer for the geography unit to which this value should be attached</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
+          <t>Land area of geography in sq miles</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Tiger/Line 2018; Tiger/Line 2010</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
+          <t>InfoGroup, 2018</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>36061</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr"/>
+          <t>66452.74</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
+The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
+        </is>
+      </c>
       <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -705,65 +690,77 @@
           <t>Geography</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TotTracts</t>
+          <t>HEROP_ID</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Total Census Tract Count</t>
+          <t>HEROP_ID</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Total number of census tracts within the state.</t>
+          <t>A derived unique id corresponding to the relevant geographic unit.</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Geographic_Boundaries.md</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Tiger/Line 2018</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Tiger/Line 2018 Shapefiles</t>
-        </is>
-      </c>
+          <t>Healthy Regions &amp; Policies Lab, UIUC</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>string</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1458</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
+          <t>050US01001-2018</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
         <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
+          <t>The HEROP_ID is generated as follows: Summary Level Code + "US" + GEOID</t>
         </is>
       </c>
     </row>
@@ -773,150 +770,136 @@
           <t>Geography</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>AreaSqMi</t>
+          <t>GEOID</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Land Area (Square Miles)</t>
+          <t>GEOID</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Land area of geography in sq miles</t>
+          <t>Unique identifer for the geography unit to which this value should be attached</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Geographic_Boundaries.md</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>InfoGroup, 2018</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
-        </is>
-      </c>
+          <t>Tiger/Line 2018; Tiger/Line 2010</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>66452.74</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
-The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
-        </is>
-      </c>
+          <t>36061</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Social</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Geography</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TotPop</t>
+          <t>CenFlags</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Total Population</t>
+          <t>Census Flags</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Total population</t>
+          <t>Three different values indicating three things:
+1 - Revised count, so urban and rural components will not add to total. 
+2 - Geography name and FIPS code were changed since 2010. Shannon County, Sotuh Dakota name changed to Oglala Lakota County, new FIPS 46102. Wade Hampton Census Area, Alaska, name changed to Kusilvak CEnsus Area, nwe FIPS 02158
+3 - Bedford City, Virginia, was consolidated with Bedford County, Virginia (FIPS 51019) since 2010.</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t>USDA-ERS 2010 &amp; ACS 2018 5-Year</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>1632480</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-        </is>
-      </c>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr">
         <is>
-          <t>For more information about how these data have been used in homelessness and housing stability research, please refer to https://www.census.gov/newsroom/press-releases/2020/special-operations-homelessness.html or https://www.americanprogress.org/issues/poverty/reports/2020/10/05/491122/count-people-where-they-are/.</t>
+          <t>The datasets come from two different sources. As a result, there might have some gaps or mismatches in the rurality categorization. Furthermore, for Census rurality, there are additional notes included for certain counties, e.g. changes in FIPS codes. These can be found under the note column.</t>
         </is>
       </c>
     </row>
@@ -959,17 +942,17 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Age18_64</t>
+          <t>TotPop</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Population: Age 18-64</t>
+          <t>Total Population</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Total adult population under age 65</t>
+          <t>Total population</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -994,7 +977,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1139347</t>
+          <t>1632480</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1002,7 +985,11 @@
           <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>For more information about how these data have been used in homelessness and housing stability research, please refer to https://www.census.gov/newsroom/press-releases/2020/special-operations-homelessness.html or https://www.americanprogress.org/issues/poverty/reports/2020/10/05/491122/count-people-where-they-are/.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1043,17 +1030,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Age0_4</t>
+          <t>Age18_64</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Population: Age 0-4</t>
+          <t>Population: Age 18-64</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Total population between age 0-4</t>
+          <t>Total adult population under age 65</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1078,7 +1065,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>79897</t>
+          <t>1139347</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1127,17 +1114,17 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Age5_14</t>
+          <t>Age0_4</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Population: Age 5-14</t>
+          <t>Population: Age 0-4</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Total population between age 5-14</t>
+          <t>Total population between age 0-4</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1162,7 +1149,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>122034</t>
+          <t>79897</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1211,17 +1198,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Age15_19</t>
+          <t>Age5_14</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Population: Age 15-19</t>
+          <t>Population: Age 5-14</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Total population between age 15-19</t>
+          <t>Total population between age 5-14</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1246,7 +1233,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>68706</t>
+          <t>122034</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1295,17 +1282,17 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Age20_24</t>
+          <t>Age15_19</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Population: Age 20-24</t>
+          <t>Population: Age 15-19</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Total population between age 20-24</t>
+          <t>Total population between age 15-19</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1330,7 +1317,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>114772</t>
+          <t>68706</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1379,17 +1366,17 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Age15_44</t>
+          <t>Age20_24</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Population: Age 15-44</t>
+          <t>Population: Age 20-24</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Total population between age 15-44</t>
+          <t>Total population between age 20-24</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1414,7 +1401,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>784568</t>
+          <t>114772</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1435,25 +1422,45 @@
           <t>x</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Age45_54</t>
+          <t>Age15_44</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Population: Age 45-54</t>
+          <t>Population: Age 15-44</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Total population between age 45-54</t>
+          <t>Total population between age 15-44</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1463,12 +1470,12 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>IPUMS NHGIS</t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1478,19 +1485,15 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>784568</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function, with county subdivisions as the underlying population weights.</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>The 1980 Census data does not allow for disaggregation into Age45_49 and Age50_54 variables, so this variable is used instead. The data itself is from its respective decennial census as downloaded from IPUMS NHGIS and crosswalked to 2010 census tracts using Longitudinal Tract Database crosswalk files. For more on the crosswalk files, see https://s4.ad.brown.edu/Projects/Diversity/researcher/bridging.htm</t>
-        </is>
-      </c>
+          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1503,45 +1506,25 @@
           <t>x</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Age55_59</t>
+          <t>Age45_54</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Population: Age 55-59</t>
+          <t>Population: Age 45-54</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Total population between age 55-59</t>
+          <t>Total population between age 45-54</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1551,12 +1534,12 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t>IPUMS NHGIS</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1566,15 +1549,19 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>94082</t>
+          <t>105</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr"/>
+          <t>Data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function, with county subdivisions as the underlying population weights.</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>The 1980 Census data does not allow for disaggregation into Age45_49 and Age50_54 variables, so this variable is used instead. The data itself is from its respective decennial census as downloaded from IPUMS NHGIS and crosswalked to 2010 census tracts using Longitudinal Tract Database crosswalk files. For more on the crosswalk files, see https://s4.ad.brown.edu/Projects/Diversity/researcher/bridging.htm</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1615,17 +1602,17 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Age60_64</t>
+          <t>Age55_59</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Population: Age 60-64</t>
+          <t>Population: Age 55-59</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Total population between age 60-64</t>
+          <t>Total population between age 55-59</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1650,7 +1637,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>90711</t>
+          <t>94082</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1699,17 +1686,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>AgeOv65</t>
+          <t>Age60_64</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Population: Age 65+</t>
+          <t>Population: Age 60-64</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Total population at or over age 65</t>
+          <t>Total population between age 60-64</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1734,7 +1721,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>257362</t>
+          <t>90711</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1783,17 +1770,17 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Age15_24P</t>
+          <t>AgeOv65</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>% Population: Age 15-24</t>
+          <t>Population: Age 65+</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Percentage of population between ages of 15 &amp; 24</t>
+          <t>Total population at or over age 65</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1813,12 +1800,12 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>11.24</t>
+          <t>257362</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1867,17 +1854,17 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Und45P</t>
+          <t>Age15_24P</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>% Population: Age under 45</t>
+          <t>% Population: Age 15-24</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Percentage of population below 45 years of age</t>
+          <t>Percentage of population between ages of 15 &amp; 24</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1902,7 +1889,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>60.43</t>
+          <t>11.24</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1951,17 +1938,17 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Ovr65P</t>
+          <t>Und45P</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>% Population: Age 65+</t>
+          <t>% Population: Age under 45</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Percentage of population over 65</t>
+          <t xml:space="preserve">	Percentage of population below 45 years of age</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1986,7 +1973,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>15.77</t>
+          <t>60.43</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -2035,17 +2022,17 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>ChildrenP</t>
+          <t>Ovr65P</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Children %</t>
+          <t>% Population: Age 65+</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Percentage of population under age 18</t>
+          <t>Percentage of population over 65</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2070,7 +2057,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>15.77</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -2086,7 +2073,11 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>x</t>
@@ -2108,20 +2099,24 @@
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Age45_49</t>
+          <t>ChildrenP</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Population: Age 45-49</t>
+          <t>Children %</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Total population between age 45-49</t>
+          <t>Percentage of population under age 18</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2131,30 +2126,30 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; 2010 Decennial Census; IPUMS NHGIS</t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>467768</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>1990 and 2000 data from respective decennial censuses downloaded from IPUMS NHGIS and aggregated upwards.</t>
-        </is>
-      </c>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2187,17 +2182,17 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Age50_54</t>
+          <t>Age45_49</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Population: Age 50-54</t>
+          <t>Population: Age 45-49</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Total population between age 50-54</t>
+          <t>Total population between age 45-49</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2217,12 +2212,12 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>476486</t>
+          <t>467768</t>
         </is>
       </c>
       <c r="R22" t="inlineStr"/>
@@ -2239,8 +2234,16 @@
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>x</t>
@@ -2255,17 +2258,17 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>AgeOv18</t>
+          <t>Age50_54</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Population: Age 18+</t>
+          <t>Population: Age 50-54</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Total population at or over age 18</t>
+          <t>Total population between age 50-54</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2275,12 +2278,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; 2010 Decennial Census</t>
+          <t>ACS 2018, 5-Year; 2010 Decennial Census; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2290,11 +2293,15 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>5661461</t>
+          <t>476486</t>
         </is>
       </c>
       <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>1990 and 2000 data from respective decennial censuses downloaded from IPUMS NHGIS and aggregated upwards.</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2305,7 +2312,11 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>x</t>
@@ -2315,42 +2326,42 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TotPopHh</t>
+          <t>AgeOv18</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Total Population in Households</t>
+          <t>Population: Age 18+</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Total number of people in households</t>
+          <t>Total population at or over age 18</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Age_2018.md</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>ACS 2018, 5-Year; 2010 Decennial Census</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>7151776</t>
+          <t>5661461</t>
         </is>
       </c>
       <c r="R24" t="inlineStr"/>
@@ -2375,17 +2386,17 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>NonRelFhhP</t>
+          <t>TotPopHh</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>% Nonrelatives in Family Households</t>
+          <t>Total Population in Households</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Percent of people living in family households that are not related to family</t>
+          <t>Total number of people in households</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2405,12 +2416,12 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>7151776</t>
         </is>
       </c>
       <c r="R25" t="inlineStr"/>
@@ -2435,17 +2446,17 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>NonRelNfhhP</t>
+          <t>NonRelFhhP</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>% Nonrelatives in Non-family Households</t>
+          <t>% Nonrelatives in Family Households</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Percent of people living in non-family households that are not related</t>
+          <t>Percent of people living in family households that are not related to family</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2470,7 +2481,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>25.61</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="R26" t="inlineStr"/>
@@ -2495,22 +2506,22 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TotWrkE</t>
+          <t>NonRelNfhhP</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Count of Working Population</t>
+          <t>% Nonrelatives in Non-family Households</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Estimated count of working population</t>
+          <t>Percent of people living in non-family households that are not related</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2525,12 +2536,12 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>3513856</t>
+          <t>25.61</t>
         </is>
       </c>
       <c r="R27" t="inlineStr"/>
@@ -4098,11 +4109,7 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
           <t>x</t>
@@ -4112,32 +4119,32 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>TotVetPop</t>
+          <t>TotPop10</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Total Veteran Population</t>
+          <t>Total Population (2010)</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Total Veteran population</t>
+          <t>2010 total population</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/VetPop.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>USDA-ERS 2010 &amp; ACS 2018 5-Year</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4147,11 +4154,15 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>537713</t>
+          <t>1585873</t>
         </is>
       </c>
       <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>The datasets come from two different sources. As a result, there might have some gaps or mismatches in the rurality categorization. Furthermore, for Census rurality, there are additional notes included for certain counties, e.g. changes in FIPS codes. These can be found under the note column.</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4162,11 +4173,7 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
           <t>x</t>
@@ -4176,57 +4183,65 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>VetP</t>
+          <t>UrbPop10</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>% Veteran Population</t>
+          <t>Urban Population Total (2010)</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Percent of population that are veterans</t>
+          <t>2010 Population living in urban areas, as defined by Census Bureau</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/VetPop.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>ACS 2017, 5-Year; ACS 2012, 5-Year</t>
+          <t>USDA-ERS 2010 &amp; ACS 2018 5-Year</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>American Community Survey 2013-2017 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>1585873</t>
         </is>
       </c>
       <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>The datasets come from two different sources. As a result, there might have some gaps or mismatches in the rurality categorization. Furthermore, for Census rurality, there are additional notes included for certain counties, e.g. changes in FIPS codes. These can be found under the note column.</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Social</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>x</t>
@@ -4236,32 +4251,32 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>FqhcCtTmDr</t>
+          <t>TotVetPop</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Tracts with Federally Qualified Health Center (30-min driving)</t>
+          <t>Total Veteran Population</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Number of tracts with Federally Qualified Health Center within a 30-min driving range</t>
+          <t>Total Veteran population</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/VetPop.md</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA, 2020</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4271,30 +4286,26 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>1359</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>537713</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Social</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr">
         <is>
           <t>x</t>
@@ -4304,32 +4315,32 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>FqhcAvTmDr</t>
+          <t>VetP</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Driving Time to nearest Federally Qualified Health Center</t>
+          <t>% Veteran Population</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Average driving time (minutes) across tracts in state to nearest Federally Qualified Health Center</t>
+          <t>Percent of population that are veterans</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/VetPop.md</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA, 2020</t>
+          <t>ACS 2017, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
+          <t>American Community Survey 2013-2017 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -4339,19 +4350,11 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>10.65</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4372,17 +4375,17 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>FqhcTmDrP</t>
+          <t>FqhcCtTmDr</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>% tracts within 30-min drive of Federally Qualified Health Center</t>
+          <t>Tracts with Federally Qualified Health Center (30-min driving)</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Percent of tracts with Federally Qualified Health Center within a 30-min driving range.</t>
+          <t>Number of tracts with Federally Qualified Health Center within a 30-min driving range</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4402,12 +4405,12 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1359</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4440,52 +4443,52 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>BupCtTmDr</t>
+          <t>FqhcAvTmDr</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Tracts with Buprenorphine Provider within 30-min (driving)</t>
+          <t>Driving Time to nearest Federally Qualified Health Center</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Number of tracts with buprenorphine provider within a 30-min driving range</t>
+          <t>Average driving time (minutes) across tracts in state to nearest Federally Qualified Health Center</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+          <t>US Covid Atlas via HRSA, 2020</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>10.65</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
+          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
+          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
       </c>
     </row>
@@ -4508,52 +4511,52 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>BupCtTmBk</t>
+          <t>FqhcTmDrP</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Tracts with Buprenorphine Provider within 30-min (biking)</t>
+          <t>% tracts within 30-min drive of Federally Qualified Health Center</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Number of tracts with buprenorphine provider within a 30-min biking range</t>
+          <t>Percent of tracts with Federally Qualified Health Center within a 30-min driving range.</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+          <t>US Covid Atlas via HRSA, 2020</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
+          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
+          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
       </c>
     </row>
@@ -4576,17 +4579,17 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>BupCtTmWk</t>
+          <t>BupCtTmDr</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Tracts with Buprenorphine Provider within 30-min (walking)</t>
+          <t>Tracts with Buprenorphine Provider within 30-min (driving)</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Number of tracts with buprenorphine provider within a 30-min walking range</t>
+          <t>Number of tracts with buprenorphine provider within a 30-min driving range</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4611,7 +4614,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>288</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4644,17 +4647,17 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>MetCtTmDr</t>
+          <t>BupCtTmBk</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Tracts with Methadone Provider within 30-min (driving)</t>
+          <t>Tracts with Buprenorphine Provider within 30-min (biking)</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Number of tracts with methadone provider within a 30-min driving range</t>
+          <t>Number of tracts with buprenorphine provider within a 30-min biking range</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4679,7 +4682,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>287</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -4712,17 +4715,17 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>MetCtTmBk</t>
+          <t>BupCtTmWk</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Tracts with Methadone Provider within 30-min (biking)</t>
+          <t>Tracts with Buprenorphine Provider within 30-min (walking)</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Number of tracts with methadone provider within a 30-min biking range</t>
+          <t>Number of tracts with buprenorphine provider within a 30-min walking range</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4747,7 +4750,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>287</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -4780,17 +4783,17 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>MetCtTmWk</t>
+          <t>MetCtTmDr</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Tracts with Methadone Provider within 30-min (walking)</t>
+          <t>Tracts with Methadone Provider within 30-min (driving)</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Number of tracts with methadone provider within a 30-min walking range</t>
+          <t>Number of tracts with methadone provider within a 30-min driving range</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4815,7 +4818,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>288</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -4848,17 +4851,17 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>NalCtTmDr</t>
+          <t>MetCtTmBk</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Tracts with Naltrexone Provider within 30-min (driving)</t>
+          <t>Tracts with Methadone Provider within 30-min (biking)</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Number of tracts with naltrexone provider within a 30-min driving range</t>
+          <t>Number of tracts with methadone provider within a 30-min biking range</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4883,7 +4886,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>285</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -4916,17 +4919,17 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>NalCtTmBk</t>
+          <t>MetCtTmWk</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Tracts with Naltrexone Provider within 30-min (biking)</t>
+          <t>Tracts with Methadone Provider within 30-min (walking)</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Number of tracts with naltrexone provider within a 30-min biking range</t>
+          <t>Number of tracts with methadone provider within a 30-min walking range</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4951,7 +4954,7 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>272</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -4984,17 +4987,17 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>NalCtTmWk</t>
+          <t>NalCtTmDr</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Tracts with Naltrexone Provider within 30-min (walking)</t>
+          <t>Tracts with Naltrexone Provider within 30-min (driving)</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Number of tracts with naltrexone provider within a 30-min walking range</t>
+          <t>Number of tracts with naltrexone provider within a 30-min driving range</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5019,7 +5022,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>288</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -5052,17 +5055,17 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>BupAvTmDr</t>
+          <t>NalCtTmBk</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Driving Time (min) to Nearest Buprenorphine Provider</t>
+          <t>Tracts with Naltrexone Provider within 30-min (biking)</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Average driving time (minutes) across tracts in county to nearest buprenorphine provider</t>
+          <t>Number of tracts with naltrexone provider within a 30-min biking range</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5082,12 +5085,12 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>287</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -5120,17 +5123,17 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>BupAvTmBk</t>
+          <t>NalCtTmWk</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Biking Time (min) to Nearest Buprenorphine Provider</t>
+          <t>Tracts with Naltrexone Provider within 30-min (walking)</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Average biking time (minutes) across tracts in county to nearest buprenorphine provider</t>
+          <t>Number of tracts with naltrexone provider within a 30-min walking range</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5150,12 +5153,12 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>1.12569444444444</t>
+          <t>287</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -5188,17 +5191,17 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>BupAvTmWk</t>
+          <t>BupAvTmDr</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Walking Time (min) to Nearest Buprenorphine Provider</t>
+          <t>Driving Time (min) to Nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Average walking time (minutes) across tracts in county to nearest buprenorphine provider</t>
+          <t>Average driving time (minutes) across tracts in county to nearest buprenorphine provider</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5223,7 +5226,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>1.87725694444444</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -5256,17 +5259,17 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>MetAvTmDr</t>
+          <t>BupAvTmBk</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Driving Time (min) to Nearest Methadone Provider</t>
+          <t>Biking Time (min) to Nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Average driving time (minutes) across tracts in county to nearest methadone provider</t>
+          <t>Average biking time (minutes) across tracts in county to nearest buprenorphine provider</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5291,7 +5294,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>1.12569444444444</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5324,17 +5327,17 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>MetAvTmBk</t>
+          <t>BupAvTmWk</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Biking Time (min) to Nearest Methadone Provider</t>
+          <t>Walking Time (min) to Nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Average biking time (minutes) across tracts in county to nearest methadone provider</t>
+          <t>Average walking time (minutes) across tracts in county to nearest buprenorphine provider</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5359,7 +5362,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>6.32958333333333</t>
+          <t>1.87725694444444</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -5392,17 +5395,17 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>MetAvTmWk</t>
+          <t>MetAvTmDr</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Walking Time (min) to Nearest Methadone Provide</t>
+          <t>Driving Time (min) to Nearest Methadone Provider</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Average walking time (minutes) across tracts in county to nearest methadone provider</t>
+          <t>Average driving time (minutes) across tracts in county to nearest methadone provider</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5427,7 +5430,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>13.7240277777778</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -5460,17 +5463,17 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>NalAvTmDr</t>
+          <t>MetAvTmBk</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Driving Time (min) to Nearest Naltrexone Provider</t>
+          <t>Biking Time (min) to Nearest Methadone Provider</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Average driving time (minutes) across tracts in county to nearest naltrexone provider</t>
+          <t>Average biking time (minutes) across tracts in county to nearest methadone provider</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5495,7 +5498,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>6.32958333333333</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -5528,17 +5531,17 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>NalAvTmBk</t>
+          <t>MetAvTmWk</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Biking Time (min) to Nearest Naltrexone Provider</t>
+          <t>Walking Time (min) to Nearest Methadone Provide</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Average biking time (minutes) across tracts in county to nearest naltrexone provider</t>
+          <t>Average walking time (minutes) across tracts in county to nearest methadone provider</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5563,7 +5566,7 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>3.80180555555556</t>
+          <t>13.7240277777778</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -5596,17 +5599,17 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>NalAvTmWk</t>
+          <t>NalAvTmDr</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Walking Time (min) to Nearest Naltrexone Provider</t>
+          <t>Driving Time (min) to Nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Average walking time (minutes) across tracts in county to nearest naltrexone provider</t>
+          <t>Average driving time (minutes) across tracts in county to nearest naltrexone provider</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5631,7 +5634,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>7.40684027777778</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -5664,17 +5667,17 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>BupTmDrP</t>
+          <t>NalAvTmBk</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>% Tracts With Buprenorphine Provider (30-min drive)</t>
+          <t>Biking Time (min) to Nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Percent of tracts with buprenorphine provider within a 30-min driving range</t>
+          <t>Average biking time (minutes) across tracts in county to nearest naltrexone provider</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5699,7 +5702,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3.80180555555556</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -5732,17 +5735,17 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>BupTmBkP</t>
+          <t>NalAvTmWk</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>% Tracts With Buprenorphine Provider (30-min bike)</t>
+          <t>Walking Time (min) to Nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Percent of tracts with buprenorphine provider within a 30-min biking range</t>
+          <t>Average walking time (minutes) across tracts in county to nearest naltrexone provider</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5767,7 +5770,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7.40684027777778</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -5800,17 +5803,17 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>BupTmWkP</t>
+          <t>BupTmDrP</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>% Tracts With Buprenorphine Provider (30-min walk)</t>
+          <t>% Tracts With Buprenorphine Provider (30-min drive)</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Percent of tracts with buprenorphine provider within a 30-min walking range</t>
+          <t>Percent of tracts with buprenorphine provider within a 30-min driving range</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5868,17 +5871,17 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>MetTmDrP</t>
+          <t>BupTmBkP</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>% Tracts With Methadone Provider (30-min drive)</t>
+          <t>% Tracts With Buprenorphine Provider (30-min bike)</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Percent of tracts with methadone provider within a 30-min driving range</t>
+          <t>Percent of tracts with buprenorphine provider within a 30-min biking range</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5936,17 +5939,17 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>MetTmBkP</t>
+          <t>BupTmWkP</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>% Tracts With Methadone Provider (30-min bike)</t>
+          <t>% Tracts With Buprenorphine Provider (30-min walk)</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Percent of tracts with methadone provider within a 30-min biking range</t>
+          <t>Percent of tracts with buprenorphine provider within a 30-min walking range</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5971,7 +5974,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -6004,17 +6007,17 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>MetTmWkP</t>
+          <t>MetTmDrP</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>% Tracts With Methadone Provider (30-min walk)</t>
+          <t>% Tracts With Methadone Provider (30-min drive)</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Percent of tracts with methadone provider within a 30-min walking range</t>
+          <t>Percent of tracts with methadone provider within a 30-min driving range</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6039,7 +6042,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -6072,17 +6075,17 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>NalTmDrP</t>
+          <t>MetTmBkP</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>% Tracts With Naltrexone Provider (30-min drive)</t>
+          <t>% Tracts With Methadone Provider (30-min bike)</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Percent of tracts with naltrexone provider within a 30-min driving range</t>
+          <t>Percent of tracts with methadone provider within a 30-min biking range</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6107,7 +6110,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -6140,17 +6143,17 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>NalTmBkP</t>
+          <t>MetTmWkP</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>% Tracts With Naltrexone Provider (30-min bike)</t>
+          <t>% Tracts With Methadone Provider (30-min walk)</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Percent of tracts with naltrexone provider within a 30-min biking range</t>
+          <t>Percent of tracts with methadone provider within a 30-min walking range</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6175,7 +6178,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -6208,17 +6211,17 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>NalTmWkP</t>
+          <t>NalTmDrP</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>% Tracts With Naltrexone Provider (30-min walk)</t>
+          <t>% Tracts With Naltrexone Provider (30-min drive)</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Percent of tracts with naltrexone provider within a 30-min walking range</t>
+          <t>Percent of tracts with naltrexone provider within a 30-min driving range</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6276,52 +6279,52 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>MhCtTmDr</t>
+          <t>NalTmBkP</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Tracts with Mental Health Provider (30-min drive)</t>
+          <t>% Tracts With Naltrexone Provider (30-min bike)</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Number of tracts with a mental health provider within a 30-min driving range.</t>
+          <t>Percent of tracts with naltrexone provider within a 30-min biking range</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>SAMHSA, 2020</t>
+          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>1342</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
+          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
+          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
       </c>
     </row>
@@ -6344,32 +6347,32 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>MhAvTmDr</t>
+          <t>NalTmWkP</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Mental Health Provider</t>
+          <t>% Tracts With Naltrexone Provider (30-min walk)</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Average driving time (minutes) across tracts in state to nearest mental health provider.</t>
+          <t>Percent of tracts with naltrexone provider within a 30-min walking range</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>SAMHSA, 2020</t>
+          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -6379,17 +6382,17 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>11.42</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
+          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
+          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
       </c>
     </row>
@@ -6412,17 +6415,17 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>MhTmDrP</t>
+          <t>MhCtTmDr</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>% Tracts with Mental Health Provider (30-min drive)</t>
+          <t>Tracts with Mental Health Provider (30-min drive)</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Percent of tracts with a mental health provider within a 30-min driving range.</t>
+          <t>Number of tracts with a mental health provider within a 30-min driving range.</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -6442,12 +6445,12 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1342</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -6480,42 +6483,42 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>OtpCtTmDr</t>
+          <t>MhAvTmDr</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
+          <t>Driving Time (min) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Number of tracts within 30-min of opioid treatment program driving range</t>
+          <t>Average driving time (minutes) across tracts in state to nearest mental health provider.</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>SAMSHA, 2021</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>1092</t>
+          <t>11.42</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -6548,32 +6551,32 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>OtpAvTmDr</t>
+          <t>MhTmDrP</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
+          <t>% Tracts with Mental Health Provider (30-min drive)</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Average driving time (minutes) across tracts to nearest opioid treatment program.</t>
+          <t>Percent of tracts with a mental health provider within a 30-min driving range.</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>SAMSHA, 2021</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -6583,7 +6586,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>24.18</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -6616,17 +6619,17 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>OtpTmDrP</t>
+          <t>OtpCtTmDr</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>% Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
+          <t>Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Percent of tracts within a 30-minute drive time of an opioid treatment program.</t>
+          <t>Number of tracts within 30-min of opioid treatment program driving range</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -6646,12 +6649,12 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1092</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -6684,42 +6687,42 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>RxCtTmDr</t>
+          <t>OtpAvTmDr</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Tracts with Pharmacy (30-min drive)</t>
+          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Number of tracts with pharmacy within a 30-min driving range</t>
+          <t>Average driving time (minutes) across tracts to nearest opioid treatment program.</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>SAMSHA, 2021</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>1406</t>
+          <t>24.18</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -6752,32 +6755,32 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>RxAvTmDr</t>
+          <t>OtpTmDrP</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Driving Time (min) to nearest Pharmacy </t>
+          <t>% Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Average driving time (minutes) across tracts in state to nearest pharmacy.</t>
+          <t>Percent of tracts within a 30-minute drive time of an opioid treatment program.</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>SAMSHA, 2021</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
@@ -6787,7 +6790,7 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -6820,17 +6823,17 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>RxTmDrP</t>
+          <t>RxCtTmDr</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>% tracts with Pharmacy (30-min drive)</t>
+          <t>Tracts with Pharmacy (30-min drive)</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Percent of tracts with pharmacy within a 30-min driving range</t>
+          <t>Number of tracts with pharmacy within a 30-min driving range</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -6850,12 +6853,12 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1406</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -6888,42 +6891,42 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>SutpCtTmDr</t>
+          <t>RxAvTmDr</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Tracts with Substance Use Treatment (SUT) program (30-min drive)</t>
+          <t xml:space="preserve">Avg. Driving Time (min) to nearest Pharmacy </t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Number of tracts with Substance Use Treatment within a 30-min driving range.</t>
+          <t>Average driving time (minutes) across tracts in state to nearest pharmacy.</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>SAMHSA, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>1364</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -6956,32 +6959,32 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>SutpAvTmDr</t>
+          <t>RxTmDrP</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Substance Use Treatment program</t>
+          <t>% tracts with Pharmacy (30-min drive)</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Average driving time (minutes) across tracts in state to nearest Substance Use Treatment program.</t>
+          <t>Percent of tracts with pharmacy within a 30-min driving range</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>SAMHSA, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -6991,7 +6994,7 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -7024,17 +7027,17 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>SutpTmDrP</t>
+          <t>SutpCtTmDr</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>% tracts with Substance Use Treatment program (30-min drive)</t>
+          <t>Tracts with Substance Use Treatment (SUT) program (30-min drive)</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Percent of tracts with Substance Use Treatment program within a 30-minute driving range.</t>
+          <t>Number of tracts with Substance Use Treatment within a 30-min driving range.</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -7054,12 +7057,12 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1364</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -7092,42 +7095,42 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>HospCtTmDr</t>
+          <t>SutpAvTmDr</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Tracts with Hospital (30-min drive)</t>
+          <t>Driving Time (min) to nearest Substance Use Treatment program</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Number of tracts with hospital within a 30-min driving range</t>
+          <t>Average driving time (minutes) across tracts in state to nearest Substance Use Treatment program.</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>1334</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -7160,32 +7163,32 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>HospAvTmDr</t>
+          <t>SutpTmDrP</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Driving Time to nearest Hospital</t>
+          <t>% tracts with Substance Use Treatment program (30-min drive)</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Average driving time (minutes) across tracts in state to nearest hospital.</t>
+          <t>Percent of tracts with Substance Use Treatment program within a 30-minute driving range.</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -7195,7 +7198,7 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>13.13</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -7228,17 +7231,17 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>HospTmDrP</t>
+          <t>HospCtTmDr</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>% Tracts within 30-min Drive of Hospital</t>
+          <t>Tracts with Hospital (30-min drive)</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Percent of tracts with hospital within a 30-mini driving range</t>
+          <t>Number of tracts with hospital within a 30-min driving range</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -7258,12 +7261,12 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1334</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -7296,51 +7299,54 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>AlcTot</t>
+          <t>HospAvTmDr</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Total Alcohol Outlets</t>
+          <t>Avg. Driving Time to nearest Hospital</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Total number of alcohol outlets</t>
+          <t>Average driving time (minutes) across tracts in state to nearest hospital.</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>InfoGroup, 2018</t>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>13.13</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
-The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
-        </is>
-      </c>
-      <c r="S96" t="inlineStr"/>
+          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7361,32 +7367,32 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>AlcDens</t>
+          <t>HospTmDrP</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Alcohol Outlets Density</t>
+          <t>% Tracts within 30-min Drive of Hospital</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Number of alcohol outlets per square mile</t>
+          <t>Percent of tracts with hospital within a 30-mini driving range</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>InfoGroup, 2018</t>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
@@ -7396,16 +7402,19 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
-The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
-        </is>
-      </c>
-      <c r="S97" t="inlineStr"/>
+          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7426,17 +7435,17 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>AlcPerCap</t>
+          <t>AlcTot</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Alcohol Outlets per Capita</t>
+          <t>Total Alcohol Outlets</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Number of alcohol outlets per capita</t>
+          <t>Total number of alcohol outlets</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -7456,12 +7465,12 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>421</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
@@ -7491,47 +7500,48 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>TotPcp</t>
+          <t>AlcDens</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Count of Primary Care Physicians (PCPs)</t>
+          <t>Alcohol Outlets Density</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Number of primary care providers in area</t>
+          <t>Number of alcohol outlets per square mile</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Health_PCPs.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas, 2010</t>
+          <t>InfoGroup, 2018</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas' Primary Care Service Area Project, 2010</t>
+          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>5904</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Does not include U.S. territories Puerto Rico, Guam, Northern Mariana Islands, American Samoa, Virgin Islands, or Washington, D.C.</t>
+          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
+The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
         </is>
       </c>
       <c r="S99" t="inlineStr"/>
@@ -7555,47 +7565,48 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>TotSp</t>
+          <t>AlcPerCap</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Count of Specialty Physicians</t>
+          <t>Alcohol Outlets per Capita</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Number of specialty physicians in area</t>
+          <t>Number of alcohol outlets per capita</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Health_PCPs.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas, 2010</t>
+          <t>InfoGroup, 2018</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas' Primary Care Service Area Project, 2010</t>
+          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>9499</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Does not include U.S. territories Puerto Rico, Guam, Northern Mariana Islands, American Samoa, Virgin Islands, or Washington, D.C.</t>
+          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
+The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
         </is>
       </c>
       <c r="S100" t="inlineStr"/>
@@ -7615,25 +7626,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>PcpPer100k</t>
+          <t>TotPcp</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Primary Care Physicians (PCP) per 100k</t>
+          <t>Count of Primary Care Physicians (PCPs)</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>PCPs per total Population X 100,000</t>
+          <t>Number of primary care providers in area</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -7648,17 +7655,17 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas' Primary Care Service Area (PCSA) Project</t>
+          <t>Dartmouth Atlas' Primary Care Service Area Project, 2010</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>133.42</t>
+          <t>5904</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
@@ -7687,17 +7694,17 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>SpPer100k</t>
+          <t>TotSp</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Specialty Physicians per 100k</t>
+          <t>Count of Specialty Physicians</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Specialty Physicians per total Population X 100,000</t>
+          <t>Number of specialty physicians in area</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -7712,17 +7719,17 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas' Primary Care Service Area (PCSA) Project</t>
+          <t>Dartmouth Atlas' Primary Care Service Area Project, 2010</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>41.05</t>
+          <t>9499</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -7738,80 +7745,64 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>TotUnits</t>
+          <t>PcpPer100k</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Total Occupied Housing Units</t>
+          <t>Primary Care Physicians (PCP) per 100k</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Count of total occupied housing units</t>
+          <t>PCPs per total Population X 100,000</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Health_PCPs.md</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; Social Explorer</t>
+          <t>Dartmouth Atlas, 2010</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012; Social Explorer Historic Census Data on 2010 Geometries</t>
+          <t>Dartmouth Atlas' Primary Care Service Area (PCSA) Project</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>874237</t>
+          <t>133.42</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
+          <t>Does not include U.S. territories Puerto Rico, Guam, Northern Mariana Islands, American Samoa, Virgin Islands, or Washington, D.C.</t>
         </is>
       </c>
       <c r="S103" t="inlineStr"/>
@@ -7822,65 +7813,45 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>VacantP</t>
+          <t>SpPer100k</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Vacant Housing Units %</t>
+          <t>Specialty Physicians per 100k</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Percentage of vacant housing units</t>
+          <t>Specialty Physicians per total Population X 100,000</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Health_PCPs.md</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
+          <t>Dartmouth Atlas, 2010</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5 Year Estimate; Social Explorer Historic Data on 2010 Geographies</t>
+          <t>Dartmouth Atlas' Primary Care Service Area (PCSA) Project</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
@@ -7890,12 +7861,12 @@
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>13.28</t>
+          <t>41.05</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
+          <t>Does not include U.S. territories Puerto Rico, Guam, Northern Mariana Islands, American Samoa, Virgin Islands, or Washington, D.C.</t>
         </is>
       </c>
       <c r="S104" t="inlineStr"/>
@@ -7906,30 +7877,50 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F105" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>MobileP</t>
+          <t>TotUnits</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Mobile Homes %</t>
+          <t>Total Occupied Housing Units</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Percentage of total housing units categorized as mobile housing structures</t>
+          <t>Count of total occupied housing units</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -7939,25 +7930,29 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>ACS 2018, 5-Year; Census 2010; Social Explorer</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012; Social Explorer Historic Census Data on 2010 Geometries</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="R105" t="inlineStr"/>
+          <t>874237</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
+        </is>
+      </c>
       <c r="S105" t="inlineStr"/>
     </row>
     <row r="106">
@@ -7966,30 +7961,50 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F106" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>LngTermP</t>
+          <t>VacantP</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Long-Term Occupancy %</t>
+          <t>Vacant Housing Units %</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Percentage of population who moved into their current housing more than 20 years ago</t>
+          <t>Percentage of vacant housing units</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -7999,12 +8014,12 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5 Year Estimate; Social Explorer Historic Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
@@ -8014,10 +8029,14 @@
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>19.99</t>
-        </is>
-      </c>
-      <c r="R106" t="inlineStr"/>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
+        </is>
+      </c>
       <c r="S106" t="inlineStr"/>
     </row>
     <row r="107">
@@ -8039,17 +8058,17 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>RentalP</t>
+          <t>MobileP</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Rentals %</t>
+          <t>Mobile Homes %</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Percentage of occupied housing units that are rented</t>
+          <t>Percentage of total housing units categorized as mobile housing structures</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -8074,7 +8093,7 @@
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>37.28</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="R107" t="inlineStr"/>
@@ -8099,17 +8118,17 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>UnitDens</t>
+          <t>LngTermP</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Housing Unit Density</t>
+          <t>Long-Term Occupancy %</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Number of housing units per square mile of land area</t>
+          <t>Percentage of population who moved into their current housing more than 20 years ago</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -8134,7 +8153,7 @@
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>46.11</t>
+          <t>19.99</t>
         </is>
       </c>
       <c r="R108" t="inlineStr"/>
@@ -8159,32 +8178,32 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>NoIntP</t>
+          <t>RentalP</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Households without Internet Access %</t>
+          <t>Rentals %</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Percentage of Households without Internet access</t>
+          <t>Percentage of occupied housing units that are rented</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Internet_2019.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>ACS, 2019</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>American Community Survey 2015-2019 5 Year Estimate</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
@@ -8194,7 +8213,7 @@
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>37.28</t>
         </is>
       </c>
       <c r="R109" t="inlineStr"/>
@@ -8219,32 +8238,32 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Ndvi</t>
+          <t>UnitDens</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>NDVI Average</t>
+          <t>Housing Unit Density</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Average normalized difference vegetation index, a measure of greenness used to determine the amount of vegetation in an area, value from all pixel values in each Census tract</t>
+          <t>Number of housing units per square mile of land area</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/NDVI.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>Sentinel-2 MSI, 2018</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>Sentinel 2 MSI: MultiSpectral Instrument Level-1 C</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
@@ -8254,14 +8273,10 @@
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="R110" t="inlineStr">
-        <is>
-          <t>Despite removing identified influences of cloud interferences, there may still be clouds or other atmospheric conditions that alter pixel values used in calculations. See the original source for greater documentation of these effects. Furthermore, summarizing NDVI to the census tract simplifies inter-census tract variability.</t>
-        </is>
-      </c>
+          <t>46.11</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr"/>
       <c r="S110" t="inlineStr"/>
     </row>
     <row r="111">
@@ -8283,32 +8298,32 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>RcaUrbanP</t>
+          <t>NoIntP</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>% Tracts Urban (RUCA)</t>
+          <t>Households without Internet Access %</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Percent census tracts in the county classified as Urban using RUCA codes</t>
+          <t>Percentage of Households without Internet access</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Internet_2019.md</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010 &amp; ACS 2018 5-Year</t>
+          <t>ACS, 2019</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>American Community Survey 2015-2019 5 Year Estimate</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
@@ -8318,15 +8333,11 @@
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>The datasets come from two different sources. As a result, there might have some gaps or mismatches in the rurality categorization. Furthermore, for Census rurality, there are additional notes included for certain counties, e.g. changes in FIPS codes. These can be found under the note column.</t>
-        </is>
-      </c>
+      <c r="S111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8347,32 +8358,32 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>RcaSubrbP</t>
+          <t>Ndvi</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>% Tracts Suburban (RUCA)</t>
+          <t>NDVI Average</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Percent census tracts in the county classified as Suburban using RUCA codes</t>
+          <t>Average normalized difference vegetation index, a measure of greenness used to determine the amount of vegetation in an area, value from all pixel values in each Census tract</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/NDVI.md</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010 &amp; ACS 2018 5-Year</t>
+          <t>Sentinel-2 MSI, 2018</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>Sentinel 2 MSI: MultiSpectral Instrument Level-1 C</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
@@ -8382,15 +8393,15 @@
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>The datasets come from two different sources. As a result, there might have some gaps or mismatches in the rurality categorization. Furthermore, for Census rurality, there are additional notes included for certain counties, e.g. changes in FIPS codes. These can be found under the note column.</t>
-        </is>
-      </c>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>Despite removing identified influences of cloud interferences, there may still be clouds or other atmospheric conditions that alter pixel values used in calculations. See the original source for greater documentation of these effects. Furthermore, summarizing NDVI to the census tract simplifies inter-census tract variability.</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8411,17 +8422,17 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>RcaRuralP</t>
+          <t>RcaUrbanP</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>% Tracts Rural (RUCA)</t>
+          <t>% Tracts Urban (RUCA)</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Percent census tracts in the county classified as Rural using RUCA codes</t>
+          <t>Percent census tracts in the county classified as Urban using RUCA codes</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -8446,7 +8457,7 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="R113" t="inlineStr"/>
@@ -8475,20 +8486,17 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>CenFlags</t>
+          <t>RcaSubrbP</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Census Flags</t>
+          <t>% Tracts Suburban (RUCA)</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Three different values indicating three things:
-1 - Revised count, so urban and rural components will not add to total. 
-2 - Geography name and FIPS code were changed since 2010. Shannon County, Sotuh Dakota name changed to Oglala Lakota County, new FIPS 46102. Wade Hampton Census Area, Alaska, name changed to Kusilvak CEnsus Area, nwe FIPS 02158
-3 - Bedford City, Virginia, was consolidated with Bedford County, Virginia (FIPS 51019) since 2010.</t>
+          <t>Percent census tracts in the county classified as Suburban using RUCA codes</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -8508,10 +8516,14 @@
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="Q114" t="inlineStr"/>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="R114" t="inlineStr"/>
       <c r="S114" t="inlineStr">
         <is>
@@ -8538,17 +8550,17 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>TotPop10</t>
+          <t>RcaRuralP</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Total Population (2010)</t>
+          <t>% Tracts Rural (RUCA)</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>2010 total population</t>
+          <t>Percent census tracts in the county classified as Rural using RUCA codes</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -8568,12 +8580,12 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>1585873</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R115" t="inlineStr"/>
@@ -8602,17 +8614,17 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>UrbPop10</t>
+          <t>RuralPop10</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Urban Population Total (2010)</t>
+          <t>Rural Population (2010)</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>2010 Population living in urban areas, as defined by Census Bureau</t>
+          <t>2010 Population living in non urban areas, as defined by Census Bureau</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -8637,7 +8649,7 @@
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>1585873</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R116" t="inlineStr"/>
@@ -8666,17 +8678,17 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>RuralPop10</t>
+          <t>CenRuralP</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Rural Population (2010)</t>
+          <t>Rural Population % (2010)</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>2010 Population living in non urban areas, as defined by Census Bureau</t>
+          <t>% of 2010 Population living in non urban areas, as defined by Census Bureau</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -8696,7 +8708,7 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr">
@@ -8714,48 +8726,68 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Environment</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F118" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>CenRuralP</t>
+          <t>PovP</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Rural Population % (2010)</t>
+          <t>Poverty %</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>% of 2010 Population living in non urban areas, as defined by Census Bureau</t>
+          <t>Number of individuals earning below the poverty income threshold as a percentage of the total population</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic_2018.md</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010 &amp; ACS 2018 5-Year</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
@@ -8765,13 +8797,17 @@
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R118" t="inlineStr"/>
+          <t>16.6</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
+        </is>
+      </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>The datasets come from two different sources. As a result, there might have some gaps or mismatches in the rurality categorization. Furthermore, for Census rurality, there are additional notes included for certain counties, e.g. changes in FIPS codes. These can be found under the note column.</t>
+          <t>For complete definitions of ACS variables described above, please refer to the American Community Survey &amp; Puerto Rico Community Survey 2018 Subject Definitions.</t>
         </is>
       </c>
     </row>
@@ -8814,17 +8850,17 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>PovP</t>
+          <t>UnempP</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Poverty %</t>
+          <t>Unemployment %</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Number of individuals earning below the poverty income threshold as a percentage of the total population</t>
+          <t>The number of unemployed individuals as a percentage of the civilian labor force</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -8849,7 +8885,7 @@
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>16.6</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
@@ -8869,21 +8905,9 @@
           <t>Economic</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
           <t>x</t>
@@ -8895,24 +8919,20 @@
         </is>
       </c>
       <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>UnempP</t>
+          <t>MedInc</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Unemployment %</t>
+          <t>Median Income</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>The number of unemployed individuals as a percentage of the civilian labor force</t>
+          <t>Median income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -8922,34 +8942,26 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="R120" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
-        </is>
-      </c>
-      <c r="S120" t="inlineStr">
-        <is>
-          <t>For complete definitions of ACS variables described above, please refer to the American Community Survey &amp; Puerto Rico Community Survey 2018 Subject Definitions.</t>
-        </is>
-      </c>
+          <t>34148</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8974,17 +8986,17 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>MedInc</t>
+          <t>PciE</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Median Income</t>
+          <t>Per Capita Income</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Median income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
+          <t>Per capita income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -9009,7 +9021,7 @@
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>34148</t>
+          <t>36888</t>
         </is>
       </c>
       <c r="R121" t="inlineStr"/>
@@ -9024,11 +9036,7 @@
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr">
         <is>
           <t>x</t>
@@ -9038,46 +9046,54 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>PciE</t>
+          <t>ForDqP</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Per Capita Income</t>
+          <t>Foreclosure &amp; Delinquency %</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Per capita income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
+          <t>Estimated percent of mortgages to start foreclosure process or be seriously delinquent during the 2008 Recession</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/ForeclosureRate.md</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>HUD, 2018</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>36888</t>
-        </is>
-      </c>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="inlineStr"/>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect "real" numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure.</t>
+        </is>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>For more recent county, state, and metro area data on mortgage delinquencies, see Mortgage Performance Trends data from the U.S. Consumer Financial Protection Bureau.</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -9098,17 +9114,17 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>ForDqP</t>
+          <t>ForDqTot</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Foreclosure &amp; Delinquency %</t>
+          <t>Foreclosure &amp; Delinquency Count</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Estimated percent of mortgages to start foreclosure process or be seriously delinquent during the 2008 Recession</t>
+          <t>Estimated number of mortgages to start foreclosure process or be seriously delinquent during the 2008 Recession</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -9133,7 +9149,7 @@
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>48.09</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
@@ -9156,7 +9172,11 @@
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F124" t="inlineStr">
         <is>
           <t>x</t>
@@ -9166,17 +9186,17 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>ForDqTot</t>
+          <t>GiniCoeff</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Foreclosure &amp; Delinquency Count</t>
+          <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Estimated number of mortgages to start foreclosure process or be seriously delinquent during the 2008 Recession</t>
+          <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
@@ -9186,12 +9206,12 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>HUD, 2018</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
@@ -9201,19 +9221,11 @@
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>48.09</t>
-        </is>
-      </c>
-      <c r="R124" t="inlineStr">
-        <is>
-          <t>The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect "real" numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure.</t>
-        </is>
-      </c>
-      <c r="S124" t="inlineStr">
-        <is>
-          <t>For more recent county, state, and metro area data on mortgage delinquencies, see Mortgage Performance Trends data from the U.S. Consumer Financial Protection Bureau.</t>
-        </is>
-      </c>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -9224,11 +9236,7 @@
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr">
         <is>
           <t>x</t>
@@ -9238,42 +9246,42 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>GiniCoeff</t>
+          <t>TotWrkE</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Income Inequality (Gini Coefficient)</t>
+          <t>Count of Working Population</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Income Inequality (Gini Coefficient)</t>
+          <t>Estimated count of working population</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/ForeclosureRate.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>3513856</t>
         </is>
       </c>
       <c r="R125" t="inlineStr"/>
@@ -10354,32 +10362,32 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>DrgRlDth</t>
+          <t>OpRxRt20</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Deaths from drug-related causes (2009-2018)</t>
+          <t>Opioid Prescription Rate (2020)</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Total deaths from drug-related causes, 2009-2018</t>
+          <t>Opioid prescription rate in 2020</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Health_DrugDeaths.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/OpioidIndicators.md</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>CDC WONDER, 2009-2019</t>
+          <t>HepVu, 2020</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>United States CDC's Underlying Cause of Death, 2009-2019 dataset via CDC Wonder.</t>
+          <t>HepVu, 2020</t>
         </is>
       </c>
       <c r="P142" t="inlineStr">
@@ -10389,19 +10397,11 @@
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>9691</t>
-        </is>
-      </c>
-      <c r="R142" t="inlineStr">
-        <is>
-          <t>County-level and other subnational data representing fewer than ten persons (0-9) are suppressed for year 1989 and later years, including our years of interest 2009-2018. Furthermore, rates may be considered "unreliable" when the death count is less than 20. For more information, see CDC.</t>
-        </is>
-      </c>
-      <c r="S142" t="inlineStr">
-        <is>
-          <t>This dataset includes data for the 48 contiguous U.S. states and Washington, D.C. It does not include Alaska, Hawaii, or the U.S. territories: Puerto Rico, Guam, American Samoa, Northern Mariana Islands, U.S. Virgin Islands.</t>
-        </is>
-      </c>
+          <t>39.5</t>
+        </is>
+      </c>
+      <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -10422,17 +10422,17 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>OpRxRt20</t>
+          <t>OdMortRt14</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Opioid Prescription Rate (2020)</t>
+          <t>Opioid Mortality Rate (2014)</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Opioid prescription rate in 2020</t>
+          <t>Overdose mortality rate in 2014</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -10457,7 +10457,7 @@
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>39.5</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="R143" t="inlineStr"/>
@@ -10482,17 +10482,17 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>OdMortRt14</t>
+          <t>OdMortRt15</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Opioid Mortality Rate (2014)</t>
+          <t>Opioid Mortality Rate (2015)</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Overdose mortality rate in 2014</t>
+          <t>Overdose mortality rate in 2015</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -10517,7 +10517,7 @@
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>14.7</t>
         </is>
       </c>
       <c r="R144" t="inlineStr"/>
@@ -10542,17 +10542,17 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>OdMortRt15</t>
+          <t>OdMortRt16</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Opioid Mortality Rate (2015)</t>
+          <t>Opioid Mortality Rate (2016)</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Overdose mortality rate in 2015</t>
+          <t>Overdose mortality rate in 2016</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>14.7</t>
+          <t>14.5</t>
         </is>
       </c>
       <c r="R145" t="inlineStr"/>
@@ -10602,17 +10602,17 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>OdMortRt16</t>
+          <t>OdMortRt17</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Opioid Mortality Rate (2016)</t>
+          <t>Opioid Mortality Rate (2017)</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Overdose mortality rate in 2016</t>
+          <t>Overdose mortality rate in 2017</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -10637,7 +10637,7 @@
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>14.5</t>
+          <t>15.2</t>
         </is>
       </c>
       <c r="R146" t="inlineStr"/>
@@ -10662,17 +10662,17 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>OdMortRt17</t>
+          <t>OdMortRt18</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Opioid Mortality Rate (2017)</t>
+          <t>Opioid Mortality Rate (2018)</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Overdose mortality rate in 2017</t>
+          <t>Overdose mortality rate in 2018</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -10697,7 +10697,7 @@
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>15.2</t>
+          <t>35.4</t>
         </is>
       </c>
       <c r="R147" t="inlineStr"/>
@@ -10722,17 +10722,17 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>OdMortRt18</t>
+          <t>OdMortRt19</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Opioid Mortality Rate (2018)</t>
+          <t>Opioid Mortality Rate (2019)</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Overdose mortality rate in 2018</t>
+          <t>Overdose mortality rate in 2019</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -10757,7 +10757,7 @@
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>35.4</t>
+          <t>15.8</t>
         </is>
       </c>
       <c r="R148" t="inlineStr"/>
@@ -10782,17 +10782,17 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>OdMortRt19</t>
+          <t>OdMortRt20</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Opioid Mortality Rate (2019)</t>
+          <t>Opioid Mortality Rate (2020)</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Overdose mortality rate in 2019</t>
+          <t>Overdose mortality rate in 2020</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -10817,7 +10817,7 @@
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>15.8</t>
+          <t>22</t>
         </is>
       </c>
       <c r="R149" t="inlineStr"/>
@@ -10842,17 +10842,17 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>OdMortRt20</t>
+          <t>OdMortRtAv</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Opioid Mortality Rate (2020)</t>
+          <t>Opioid Mortality Rate</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Overdose mortality rate in 2020</t>
+          <t>Average overdose mortality rate from 2016-2020</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -10877,7 +10877,7 @@
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20.58</t>
         </is>
       </c>
       <c r="R150" t="inlineStr"/>
@@ -10886,7 +10886,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Outcome</t>
+          <t>Composite</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
@@ -10898,36 +10898,40 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr"/>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>OdMortRtAv</t>
+          <t>SviTh1</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Opioid Mortality Rate</t>
+          <t>Social Vulnerability Index (SVI) 1</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Average overdose mortality rate from 2016-2020</t>
+          <t>SVI Ranking, Theme 1: Socioeconomic</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/OpioidIndicators.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI_2018.md</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>HepVu, 2020</t>
+          <t>CDC, 2018</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>HepVu, 2020</t>
+          <t>Centers for Disease Control, 2018</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
@@ -10937,10 +10941,14 @@
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>20.58</t>
-        </is>
-      </c>
-      <c r="R151" t="inlineStr"/>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
+        </is>
+      </c>
       <c r="S151" t="inlineStr"/>
     </row>
     <row r="152">
@@ -10958,25 +10966,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>SviTh1</t>
+          <t>SviTh2</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 1</t>
+          <t>Social Vulnerability Index (SVI) 2</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>SVI Ranking, Theme 1: Socioeconomic</t>
+          <t>SVI Ranking, Theme 2: Household Composition &amp; Disability</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -11001,7 +11005,7 @@
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
@@ -11030,17 +11034,17 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>SviTh2</t>
+          <t>SviTh3</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 2</t>
+          <t>Social Vulnerability Index (SVI) 3</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>SVI Ranking, Theme 2: Household Composition &amp; Disability</t>
+          <t>SVI Ranking, Theme 3: Minority Status &amp; Language</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -11065,7 +11069,7 @@
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
@@ -11090,21 +11094,25 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr"/>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>SviTh3</t>
+          <t>SviTh4</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 3</t>
+          <t>Social Vulnerability Index (SVI) 4</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>SVI Ranking, Theme 3: Minority Status &amp; Language</t>
+          <t>SVI Ranking, Theme 4: Housing Type &amp; Transportation</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -11129,7 +11137,7 @@
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
@@ -11154,25 +11162,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>SviTh4</t>
+          <t>SviSmryRnk</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 4</t>
+          <t>Social Vulnerability Index (SVI) Summary Ranking</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>SVI Ranking, Theme 4: Housing Type &amp; Transportation</t>
+          <t>Overall summary ranking</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -11197,7 +11201,7 @@
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="R155" t="inlineStr">
@@ -11206,70 +11210,6 @@
         </is>
       </c>
       <c r="S155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Composite</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr"/>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>SviSmryRnk</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>Social Vulnerability Index (SVI) Summary Ranking</t>
-        </is>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>Overall summary ranking</t>
-        </is>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI_2018.md</t>
-        </is>
-      </c>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>CDC, 2018</t>
-        </is>
-      </c>
-      <c r="N156" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control, 2018</t>
-        </is>
-      </c>
-      <c r="P156" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="Q156" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="R156" t="inlineStr">
-        <is>
-          <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
-        </is>
-      </c>
-      <c r="S156" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
